--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809C53C9-D885-42B5-862A-5ACEB21DA1B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFBA7C6-0326-412A-8570-4B785683251C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-10970" windowWidth="38620" windowHeight="21820" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
     <sheet name="画面" sheetId="2" r:id="rId2"/>
     <sheet name="クラス" sheetId="7" r:id="rId3"/>
     <sheet name="テーブル" sheetId="8" r:id="rId4"/>
-    <sheet name="×" sheetId="6" r:id="rId5"/>
+    <sheet name="フロー" sheetId="9" r:id="rId5"/>
+    <sheet name="×" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>作成日</t>
   </si>
@@ -209,31 +210,11 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ログイン認証を行う</t>
-    <rPh sb="4" eb="6">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>Login_Screen</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>string loginId</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>loginIdをLoginID_Textに入力された状態にする</t>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウタイ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -388,32 +369,6 @@
     </rPh>
     <rPh sb="98" eb="100">
       <t>レンラク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>ログインIDの空白・スペースのみの入力チェックを行う</t>
-    <rPh sb="7" eb="9">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>パスワードの空白・スペースのみの入力チェックを行う</t>
-    <rPh sb="6" eb="8">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -536,6 +491,84 @@
     </rPh>
     <rPh sb="18" eb="21">
       <t>モジブン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログインIDの空白・スペースのみの入力チェックを行う。</t>
+    <rPh sb="7" eb="9">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>パスワードの空白・スペースのみの入力チェックを行う。</t>
+    <rPh sb="6" eb="8">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>loginIdをLoginID_Textに入力された状態にする。</t>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ログイン認証を行う。</t>
+    <rPh sb="4" eb="6">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>終了</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Quit_Button</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Quit_Button_OnClick</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>システムを終了する。</t>
+    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>ダイヤログで確認してシステムを終了する。</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -963,9 +996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>237600</xdr:colOff>
+      <xdr:colOff>233790</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>145120</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -981,7 +1014,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="0" y="167640"/>
-          <a:ext cx="5030580" cy="3995760"/>
+          <a:ext cx="5026770" cy="4000840"/>
           <a:chOff x="563880" y="168000"/>
           <a:chExt cx="5030580" cy="3995760"/>
         </a:xfrm>
@@ -1445,7 +1478,125 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="CustomShape 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A101F04A-29E7-4F20-97E7-5CA068948F90}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4730298" y="535663"/>
+            <a:ext cx="810931" cy="347160"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor"/>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" strike="noStrike" spc="-1" baseline="0">
+                <a:latin typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>終了</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1400" b="0" strike="noStrike" spc="-1" baseline="0">
+              <a:latin typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>62533</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5876A440-6591-4842-B041-580BED7F1ED6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5180633" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2199,7 +2350,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
@@ -4497,7 +4648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A41:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4873,7 +5024,7 @@
       <c r="S52" s="26"/>
       <c r="T52" s="26"/>
       <c r="U52" s="26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="V52" s="26"/>
       <c r="W52" s="26"/>
@@ -4918,7 +5069,7 @@
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
       <c r="U53" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="V53" s="27"/>
       <c r="W53" s="27"/>
@@ -4963,7 +5114,7 @@
       <c r="S54" s="26"/>
       <c r="T54" s="26"/>
       <c r="U54" s="26" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="V54" s="26"/>
       <c r="W54" s="26"/>
@@ -4982,17 +5133,23 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
+      <c r="H55" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="I55" s="26"/>
       <c r="J55" s="26"/>
       <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
+      <c r="L55" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="M55" s="26"/>
       <c r="N55" s="26"/>
       <c r="O55" s="26"/>
@@ -5001,7 +5158,9 @@
       <c r="R55" s="26"/>
       <c r="S55" s="26"/>
       <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
+      <c r="U55" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="V55" s="26"/>
       <c r="W55" s="26"/>
       <c r="X55" s="26"/>
@@ -5140,7 +5299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5205,7 +5364,7 @@
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -5325,13 +5484,13 @@
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="31"/>
       <c r="G5" s="29" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -5386,7 +5545,7 @@
       <c r="BB5" s="28"/>
       <c r="BC5" s="28"/>
       <c r="BD5" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BE5" s="30"/>
       <c r="BF5" s="30"/>
@@ -5422,13 +5581,13 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
       <c r="G6" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
@@ -5436,7 +5595,7 @@
       <c r="K6" s="36"/>
       <c r="L6" s="37"/>
       <c r="M6" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -5456,7 +5615,7 @@
       <c r="AC6" s="27"/>
       <c r="AD6" s="27"/>
       <c r="AE6" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AF6" s="27"/>
       <c r="AG6" s="27"/>
@@ -5483,7 +5642,7 @@
       <c r="BB6" s="27"/>
       <c r="BC6" s="27"/>
       <c r="BD6" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE6" s="33"/>
       <c r="BF6" s="33"/>
@@ -5520,13 +5679,13 @@
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
       <c r="G7" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
@@ -5534,7 +5693,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="37"/>
       <c r="M7" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
@@ -5554,7 +5713,7 @@
       <c r="AC7" s="27"/>
       <c r="AD7" s="27"/>
       <c r="AE7" s="27" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
@@ -5581,7 +5740,7 @@
       <c r="BB7" s="27"/>
       <c r="BC7" s="27"/>
       <c r="BD7" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
@@ -5819,13 +5978,13 @@
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="31"/>
       <c r="G11" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -5884,7 +6043,7 @@
       <c r="BB11" s="28"/>
       <c r="BC11" s="28"/>
       <c r="BD11" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BE11" s="30"/>
       <c r="BF11" s="30"/>
@@ -5914,19 +6073,19 @@
       <c r="CD11" s="30"/>
       <c r="CE11" s="31"/>
     </row>
-    <row r="12" spans="1:83" ht="47.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:83" ht="56.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
         <v>1</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
       <c r="G12" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -5945,7 +6104,7 @@
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W12" s="27"/>
       <c r="X12" s="27"/>
@@ -5956,7 +6115,7 @@
       <c r="AC12" s="27"/>
       <c r="AD12" s="27"/>
       <c r="AE12" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AF12" s="27"/>
       <c r="AG12" s="27"/>
@@ -5967,7 +6126,7 @@
       <c r="AL12" s="27"/>
       <c r="AM12" s="27"/>
       <c r="AN12" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO12" s="27"/>
       <c r="AP12" s="27"/>
@@ -5985,7 +6144,7 @@
       <c r="BB12" s="27"/>
       <c r="BC12" s="27"/>
       <c r="BD12" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BE12" s="33"/>
       <c r="BF12" s="33"/>
@@ -6022,13 +6181,13 @@
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -6036,7 +6195,7 @@
       <c r="K13" s="36"/>
       <c r="L13" s="37"/>
       <c r="M13" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
@@ -6047,7 +6206,7 @@
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W13" s="27"/>
       <c r="X13" s="27"/>
@@ -6058,7 +6217,7 @@
       <c r="AC13" s="27"/>
       <c r="AD13" s="27"/>
       <c r="AE13" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF13" s="27"/>
       <c r="AG13" s="27"/>
@@ -6069,7 +6228,7 @@
       <c r="AL13" s="27"/>
       <c r="AM13" s="27"/>
       <c r="AN13" s="27" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="AO13" s="27"/>
       <c r="AP13" s="27"/>
@@ -6087,7 +6246,7 @@
       <c r="BB13" s="27"/>
       <c r="BC13" s="27"/>
       <c r="BD13" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BE13" s="33"/>
       <c r="BF13" s="33"/>
@@ -6124,13 +6283,13 @@
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
       <c r="G14" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -6138,7 +6297,7 @@
       <c r="K14" s="36"/>
       <c r="L14" s="37"/>
       <c r="M14" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
@@ -6149,7 +6308,7 @@
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
@@ -6160,7 +6319,7 @@
       <c r="AC14" s="27"/>
       <c r="AD14" s="27"/>
       <c r="AE14" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF14" s="27"/>
       <c r="AG14" s="27"/>
@@ -6171,7 +6330,7 @@
       <c r="AL14" s="27"/>
       <c r="AM14" s="27"/>
       <c r="AN14" s="27" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="AO14" s="27"/>
       <c r="AP14" s="27"/>
@@ -6189,7 +6348,7 @@
       <c r="BB14" s="27"/>
       <c r="BC14" s="27"/>
       <c r="BD14" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BE14" s="33"/>
       <c r="BF14" s="33"/>
@@ -6226,13 +6385,13 @@
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
       <c r="G15" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -6240,7 +6399,7 @@
       <c r="K15" s="36"/>
       <c r="L15" s="37"/>
       <c r="M15" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
@@ -6251,7 +6410,7 @@
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
       <c r="V15" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="W15" s="27"/>
       <c r="X15" s="27"/>
@@ -6262,7 +6421,7 @@
       <c r="AC15" s="27"/>
       <c r="AD15" s="27"/>
       <c r="AE15" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AF15" s="27"/>
       <c r="AG15" s="27"/>
@@ -6273,7 +6432,7 @@
       <c r="AL15" s="27"/>
       <c r="AM15" s="27"/>
       <c r="AN15" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO15" s="27"/>
       <c r="AP15" s="27"/>
@@ -6291,7 +6450,7 @@
       <c r="BB15" s="27"/>
       <c r="BC15" s="27"/>
       <c r="BD15" s="32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BE15" s="33"/>
       <c r="BF15" s="33"/>
@@ -6321,23 +6480,29 @@
       <c r="CD15" s="33"/>
       <c r="CE15" s="34"/>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:83" ht="26.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B16" s="26"/>
-      <c r="C16" s="32"/>
+      <c r="C16" s="32" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
+      <c r="G16" s="35" t="s">
+        <v>67</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="37"/>
-      <c r="M16" s="27"/>
+      <c r="M16" s="27" t="s">
+        <v>66</v>
+      </c>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
@@ -6346,7 +6511,9 @@
       <c r="S16" s="27"/>
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
+      <c r="V16" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="W16" s="27"/>
       <c r="X16" s="27"/>
       <c r="Y16" s="27"/>
@@ -6355,7 +6522,9 @@
       <c r="AB16" s="27"/>
       <c r="AC16" s="27"/>
       <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
+      <c r="AE16" s="27" t="s">
+        <v>56</v>
+      </c>
       <c r="AF16" s="27"/>
       <c r="AG16" s="27"/>
       <c r="AH16" s="27"/>
@@ -6364,7 +6533,9 @@
       <c r="AK16" s="27"/>
       <c r="AL16" s="27"/>
       <c r="AM16" s="27"/>
-      <c r="AN16" s="27"/>
+      <c r="AN16" s="27" t="s">
+        <v>69</v>
+      </c>
       <c r="AO16" s="27"/>
       <c r="AP16" s="27"/>
       <c r="AQ16" s="27"/>
@@ -6380,7 +6551,9 @@
       <c r="BA16" s="27"/>
       <c r="BB16" s="27"/>
       <c r="BC16" s="27"/>
-      <c r="BD16" s="32"/>
+      <c r="BD16" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="BE16" s="33"/>
       <c r="BF16" s="33"/>
       <c r="BG16" s="33"/>
@@ -6503,13 +6676,13 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="31"/>
       <c r="G20" s="29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -6566,7 +6739,7 @@
       <c r="BB20" s="28"/>
       <c r="BC20" s="28"/>
       <c r="BD20" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BE20" s="30"/>
       <c r="BF20" s="30"/>
@@ -6602,13 +6775,13 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
       <c r="G21" s="35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
@@ -6616,7 +6789,7 @@
       <c r="K21" s="36"/>
       <c r="L21" s="37"/>
       <c r="M21" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
@@ -6630,7 +6803,7 @@
       <c r="W21" s="27"/>
       <c r="X21" s="27"/>
       <c r="Y21" s="27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
@@ -6644,7 +6817,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="27"/>
       <c r="AK21" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AL21" s="27"/>
       <c r="AM21" s="27"/>
@@ -6665,7 +6838,7 @@
       <c r="BB21" s="27"/>
       <c r="BC21" s="27"/>
       <c r="BD21" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="BE21" s="33"/>
       <c r="BF21" s="33"/>
@@ -7259,7 +7432,7 @@
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -7271,7 +7444,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
@@ -7293,7 +7466,7 @@
       <c r="AE3" s="26"/>
       <c r="AF3" s="26"/>
       <c r="AG3" s="38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AH3" s="39"/>
       <c r="AI3" s="39"/>
@@ -7592,6 +7765,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D182091-27B4-4D1F-BE74-7A057139F56F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFBA7C6-0326-412A-8570-4B785683251C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E16FF4-E6BC-45D2-A18D-A273232DC529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-10970" windowWidth="38620" windowHeight="21820" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>作成日</t>
   </si>
@@ -109,10 +109,6 @@
     <rPh sb="2" eb="5">
       <t>カンスウメイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>テーブル｛カラム｝</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -280,22 +276,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>Exception：重大なエラーが起きました。システム管理者に連絡してください。</t>
-    <rPh sb="10" eb="12">
-      <t>ジュウダイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>レンラク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>入力値とDBのログインID・パスワード情報を比較してデータ承認を行う。</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -324,51 +304,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>出力入力チェック失敗：ログインID・パスワードの入力が正しくありません。
-出力ログインチェック失敗：ログイン情報が正しくありません。
-Exception：重大なエラーが起きました。システム管理者に連絡してください。</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ジュウダイ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="94" eb="97">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>レンラク</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -404,46 +339,7 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>M_USER {password}</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SELECT password
-FROM M_USER
-WHERE userId = "ユーザID"</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>なし</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>SQLException：クエリに問題があります。システム管理者に連絡してください。
-SQLTimeOverException：DB接続状況が不安定です。時間をおいてから実行してください。</t>
-    <rPh sb="17" eb="19">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>フアンテイ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ジッコウ</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -563,12 +459,144 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>ダイヤログで確認してシステムを終了する。</t>
+    <t>SELECT password
+FROM M_USER
+WHERE userId = "ユーザID";</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>終了確認ダイアログを表示して、システムを終了する。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>OnClick</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Exception：「重大なエラーが起きました。システム管理者に連絡してください。」</t>
+    <rPh sb="11" eb="13">
+      <t>ジュウダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>出力入力チェック失敗：「ログインID・パスワードの入力が正しくありません。」
+出力ログインチェック失敗：「ログイン情報が正しくありません。」
+Exception：「重大なエラーが起きました。システム管理者に連絡してください。」</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ジュウダイ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>終了確認：「終了しますか？」
+Exception：「重大なエラーが起きました。システム管理者に連絡してください。」</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
     <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
       <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジュウダイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>SQLException：「クエリに問題があります。システム管理者に連絡してください。」
+SQLTimeOverException：「DB接続状況が不安定です。時間をおいてから実行してください。」</t>
+    <rPh sb="18" eb="20">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="74" eb="77">
+      <t>フアンテイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -1901,7 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2350,7 +2378,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="23" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
@@ -4690,7 +4718,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
@@ -4865,7 +4893,7 @@
         <v>11</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
@@ -4873,13 +4901,13 @@
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
       <c r="H49" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
       <c r="L49" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M49" s="28"/>
       <c r="N49" s="28"/>
@@ -4890,7 +4918,7 @@
       <c r="S49" s="28"/>
       <c r="T49" s="28"/>
       <c r="U49" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V49" s="28"/>
       <c r="W49" s="28"/>
@@ -4909,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
@@ -4917,13 +4945,13 @@
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
       <c r="K50" s="26"/>
       <c r="L50" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M50" s="26"/>
       <c r="N50" s="26"/>
@@ -4934,7 +4962,7 @@
       <c r="S50" s="26"/>
       <c r="T50" s="26"/>
       <c r="U50" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V50" s="26"/>
       <c r="W50" s="26"/>
@@ -4954,7 +4982,7 @@
         <v>2</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
@@ -4962,13 +4990,13 @@
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
       <c r="H51" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I51" s="26"/>
       <c r="J51" s="26"/>
       <c r="K51" s="26"/>
       <c r="L51" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M51" s="26"/>
       <c r="N51" s="26"/>
@@ -4979,7 +5007,7 @@
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
       <c r="U51" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V51" s="26"/>
       <c r="W51" s="26"/>
@@ -4999,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -5007,13 +5035,13 @@
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
       <c r="H52" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
       <c r="L52" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M52" s="26"/>
       <c r="N52" s="26"/>
@@ -5024,7 +5052,7 @@
       <c r="S52" s="26"/>
       <c r="T52" s="26"/>
       <c r="U52" s="26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="V52" s="26"/>
       <c r="W52" s="26"/>
@@ -5044,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -5052,13 +5080,13 @@
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
       <c r="H53" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
       <c r="L53" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M53" s="26"/>
       <c r="N53" s="26"/>
@@ -5069,7 +5097,7 @@
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
       <c r="U53" s="27" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V53" s="27"/>
       <c r="W53" s="27"/>
@@ -5089,7 +5117,7 @@
         <v>5</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -5097,13 +5125,13 @@
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
       <c r="H54" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
       <c r="L54" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M54" s="26"/>
       <c r="N54" s="26"/>
@@ -5114,7 +5142,7 @@
       <c r="S54" s="26"/>
       <c r="T54" s="26"/>
       <c r="U54" s="26" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="V54" s="26"/>
       <c r="W54" s="26"/>
@@ -5134,7 +5162,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -5142,13 +5170,13 @@
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
       <c r="H55" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I55" s="26"/>
       <c r="J55" s="26"/>
       <c r="K55" s="26"/>
       <c r="L55" s="26" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M55" s="26"/>
       <c r="N55" s="26"/>
@@ -5159,7 +5187,7 @@
       <c r="S55" s="26"/>
       <c r="T55" s="26"/>
       <c r="U55" s="26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="V55" s="26"/>
       <c r="W55" s="26"/>
@@ -5299,7 +5327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -5364,7 +5392,7 @@
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
@@ -5484,13 +5512,13 @@
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="31"/>
       <c r="G5" s="29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -5545,7 +5573,7 @@
       <c r="BB5" s="28"/>
       <c r="BC5" s="28"/>
       <c r="BD5" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BE5" s="30"/>
       <c r="BF5" s="30"/>
@@ -5581,13 +5609,13 @@
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
       <c r="G6" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" s="36"/>
       <c r="I6" s="36"/>
@@ -5595,7 +5623,7 @@
       <c r="K6" s="36"/>
       <c r="L6" s="37"/>
       <c r="M6" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -5615,7 +5643,7 @@
       <c r="AC6" s="27"/>
       <c r="AD6" s="27"/>
       <c r="AE6" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AF6" s="27"/>
       <c r="AG6" s="27"/>
@@ -5642,7 +5670,7 @@
       <c r="BB6" s="27"/>
       <c r="BC6" s="27"/>
       <c r="BD6" s="32" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="BE6" s="33"/>
       <c r="BF6" s="33"/>
@@ -5679,13 +5707,13 @@
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
       <c r="G7" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
@@ -5693,7 +5721,7 @@
       <c r="K7" s="36"/>
       <c r="L7" s="37"/>
       <c r="M7" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
@@ -5713,7 +5741,7 @@
       <c r="AC7" s="27"/>
       <c r="AD7" s="27"/>
       <c r="AE7" s="27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AF7" s="27"/>
       <c r="AG7" s="27"/>
@@ -5740,7 +5768,7 @@
       <c r="BB7" s="27"/>
       <c r="BC7" s="27"/>
       <c r="BD7" s="32" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
@@ -5978,13 +6006,13 @@
       </c>
       <c r="B11" s="28"/>
       <c r="C11" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="30"/>
       <c r="F11" s="31"/>
       <c r="G11" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
@@ -6043,7 +6071,7 @@
       <c r="BB11" s="28"/>
       <c r="BC11" s="28"/>
       <c r="BD11" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BE11" s="30"/>
       <c r="BF11" s="30"/>
@@ -6079,13 +6107,13 @@
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
       <c r="G12" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
@@ -6093,7 +6121,7 @@
       <c r="K12" s="36"/>
       <c r="L12" s="37"/>
       <c r="M12" s="27" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N12" s="27"/>
       <c r="O12" s="27"/>
@@ -6104,7 +6132,7 @@
       <c r="T12" s="27"/>
       <c r="U12" s="27"/>
       <c r="V12" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W12" s="27"/>
       <c r="X12" s="27"/>
@@ -6115,7 +6143,7 @@
       <c r="AC12" s="27"/>
       <c r="AD12" s="27"/>
       <c r="AE12" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AF12" s="27"/>
       <c r="AG12" s="27"/>
@@ -6126,7 +6154,7 @@
       <c r="AL12" s="27"/>
       <c r="AM12" s="27"/>
       <c r="AN12" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AO12" s="27"/>
       <c r="AP12" s="27"/>
@@ -6144,7 +6172,7 @@
       <c r="BB12" s="27"/>
       <c r="BC12" s="27"/>
       <c r="BD12" s="32" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="BE12" s="33"/>
       <c r="BF12" s="33"/>
@@ -6181,13 +6209,13 @@
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
       <c r="G13" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
@@ -6195,7 +6223,7 @@
       <c r="K13" s="36"/>
       <c r="L13" s="37"/>
       <c r="M13" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N13" s="27"/>
       <c r="O13" s="27"/>
@@ -6206,7 +6234,7 @@
       <c r="T13" s="27"/>
       <c r="U13" s="27"/>
       <c r="V13" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W13" s="27"/>
       <c r="X13" s="27"/>
@@ -6217,7 +6245,7 @@
       <c r="AC13" s="27"/>
       <c r="AD13" s="27"/>
       <c r="AE13" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF13" s="27"/>
       <c r="AG13" s="27"/>
@@ -6228,7 +6256,7 @@
       <c r="AL13" s="27"/>
       <c r="AM13" s="27"/>
       <c r="AN13" s="27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AO13" s="27"/>
       <c r="AP13" s="27"/>
@@ -6246,7 +6274,7 @@
       <c r="BB13" s="27"/>
       <c r="BC13" s="27"/>
       <c r="BD13" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BE13" s="33"/>
       <c r="BF13" s="33"/>
@@ -6283,13 +6311,13 @@
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
       <c r="G14" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
@@ -6297,7 +6325,7 @@
       <c r="K14" s="36"/>
       <c r="L14" s="37"/>
       <c r="M14" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N14" s="27"/>
       <c r="O14" s="27"/>
@@ -6308,7 +6336,7 @@
       <c r="T14" s="27"/>
       <c r="U14" s="27"/>
       <c r="V14" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W14" s="27"/>
       <c r="X14" s="27"/>
@@ -6319,7 +6347,7 @@
       <c r="AC14" s="27"/>
       <c r="AD14" s="27"/>
       <c r="AE14" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF14" s="27"/>
       <c r="AG14" s="27"/>
@@ -6330,7 +6358,7 @@
       <c r="AL14" s="27"/>
       <c r="AM14" s="27"/>
       <c r="AN14" s="27" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="AO14" s="27"/>
       <c r="AP14" s="27"/>
@@ -6348,7 +6376,7 @@
       <c r="BB14" s="27"/>
       <c r="BC14" s="27"/>
       <c r="BD14" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BE14" s="33"/>
       <c r="BF14" s="33"/>
@@ -6385,13 +6413,13 @@
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
       <c r="G15" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
@@ -6399,7 +6427,7 @@
       <c r="K15" s="36"/>
       <c r="L15" s="37"/>
       <c r="M15" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N15" s="27"/>
       <c r="O15" s="27"/>
@@ -6410,7 +6438,7 @@
       <c r="T15" s="27"/>
       <c r="U15" s="27"/>
       <c r="V15" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W15" s="27"/>
       <c r="X15" s="27"/>
@@ -6421,7 +6449,7 @@
       <c r="AC15" s="27"/>
       <c r="AD15" s="27"/>
       <c r="AE15" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AF15" s="27"/>
       <c r="AG15" s="27"/>
@@ -6432,7 +6460,7 @@
       <c r="AL15" s="27"/>
       <c r="AM15" s="27"/>
       <c r="AN15" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO15" s="27"/>
       <c r="AP15" s="27"/>
@@ -6450,7 +6478,7 @@
       <c r="BB15" s="27"/>
       <c r="BC15" s="27"/>
       <c r="BD15" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BE15" s="33"/>
       <c r="BF15" s="33"/>
@@ -6487,13 +6515,13 @@
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
@@ -6501,7 +6529,7 @@
       <c r="K16" s="36"/>
       <c r="L16" s="37"/>
       <c r="M16" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
@@ -6512,7 +6540,7 @@
       <c r="T16" s="27"/>
       <c r="U16" s="27"/>
       <c r="V16" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="W16" s="27"/>
       <c r="X16" s="27"/>
@@ -6523,7 +6551,7 @@
       <c r="AC16" s="27"/>
       <c r="AD16" s="27"/>
       <c r="AE16" s="27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AF16" s="27"/>
       <c r="AG16" s="27"/>
@@ -6534,7 +6562,7 @@
       <c r="AL16" s="27"/>
       <c r="AM16" s="27"/>
       <c r="AN16" s="27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AO16" s="27"/>
       <c r="AP16" s="27"/>
@@ -6552,7 +6580,7 @@
       <c r="BB16" s="27"/>
       <c r="BC16" s="27"/>
       <c r="BD16" s="32" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="BE16" s="33"/>
       <c r="BF16" s="33"/>
@@ -6676,13 +6704,13 @@
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D20" s="30"/>
       <c r="E20" s="30"/>
       <c r="F20" s="31"/>
       <c r="G20" s="29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
@@ -6739,7 +6767,7 @@
       <c r="BB20" s="28"/>
       <c r="BC20" s="28"/>
       <c r="BD20" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BE20" s="30"/>
       <c r="BF20" s="30"/>
@@ -6775,13 +6803,13 @@
       </c>
       <c r="B21" s="26"/>
       <c r="C21" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
       <c r="G21" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
@@ -6789,7 +6817,7 @@
       <c r="K21" s="36"/>
       <c r="L21" s="37"/>
       <c r="M21" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
@@ -6803,7 +6831,7 @@
       <c r="W21" s="27"/>
       <c r="X21" s="27"/>
       <c r="Y21" s="27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Z21" s="27"/>
       <c r="AA21" s="27"/>
@@ -6817,7 +6845,7 @@
       <c r="AI21" s="27"/>
       <c r="AJ21" s="27"/>
       <c r="AK21" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL21" s="27"/>
       <c r="AM21" s="27"/>
@@ -6838,7 +6866,7 @@
       <c r="BB21" s="27"/>
       <c r="BC21" s="27"/>
       <c r="BD21" s="32" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="BE21" s="33"/>
       <c r="BF21" s="33"/>
@@ -7355,13 +7383,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E62B2D8-9038-4DC1-A756-35094BBABB32}">
-  <dimension ref="A2:BC7"/>
+  <dimension ref="A2:AI7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
@@ -7400,39 +7428,17 @@
       <c r="AD2" s="28"/>
       <c r="AE2" s="28"/>
       <c r="AF2" s="28"/>
-      <c r="AG2" s="28" t="s">
-        <v>14</v>
-      </c>
+      <c r="AG2" s="28"/>
       <c r="AH2" s="28"/>
       <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
-    </row>
-    <row r="3" spans="1:55" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:35" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
@@ -7443,55 +7449,33 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
-      <c r="M3" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="38" t="s">
-        <v>55</v>
-      </c>
+      <c r="M3" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
       <c r="AH3" s="39"/>
       <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="39"/>
-      <c r="AX3" s="39"/>
-      <c r="AY3" s="39"/>
-      <c r="AZ3" s="39"/>
-      <c r="BA3" s="39"/>
-      <c r="BB3" s="39"/>
-      <c r="BC3" s="39"/>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
         <f>$A3+1</f>
         <v>2</v>
@@ -7507,51 +7491,31 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
       <c r="AG4" s="39"/>
       <c r="AH4" s="39"/>
       <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39"/>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="39"/>
-      <c r="AU4" s="39"/>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39"/>
-      <c r="BC4" s="39"/>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
         <f t="shared" ref="A5:A7" si="0">$A4+1</f>
         <v>3</v>
@@ -7567,51 +7531,31 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
       <c r="AG5" s="39"/>
       <c r="AH5" s="39"/>
       <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39"/>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="39"/>
-      <c r="AR5" s="39"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="39"/>
-      <c r="AU5" s="39"/>
-      <c r="AV5" s="39"/>
-      <c r="AW5" s="39"/>
-      <c r="AX5" s="39"/>
-      <c r="AY5" s="39"/>
-      <c r="AZ5" s="39"/>
-      <c r="BA5" s="39"/>
-      <c r="BB5" s="39"/>
-      <c r="BC5" s="39"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7627,51 +7571,31 @@
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
       <c r="AG6" s="39"/>
       <c r="AH6" s="39"/>
       <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-      <c r="AP6" s="39"/>
-      <c r="AQ6" s="39"/>
-      <c r="AR6" s="39"/>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="39"/>
-      <c r="AU6" s="39"/>
-      <c r="AV6" s="39"/>
-      <c r="AW6" s="39"/>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="39"/>
-      <c r="AZ6" s="39"/>
-      <c r="BA6" s="39"/>
-      <c r="BB6" s="39"/>
-      <c r="BC6" s="39"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7687,76 +7611,50 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
       <c r="AG7" s="39"/>
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="39"/>
-      <c r="AZ7" s="39"/>
-      <c r="BA7" s="39"/>
-      <c r="BB7" s="39"/>
-      <c r="BC7" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="18">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:AF4"/>
-    <mergeCell ref="AG4:BC4"/>
+    <mergeCell ref="M4:AI4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:L7"/>
-    <mergeCell ref="M7:AF7"/>
-    <mergeCell ref="AG7:BC7"/>
+    <mergeCell ref="M7:AI7"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:L5"/>
-    <mergeCell ref="M5:AF5"/>
-    <mergeCell ref="AG5:BC5"/>
+    <mergeCell ref="M5:AI5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
-    <mergeCell ref="M6:AF6"/>
-    <mergeCell ref="AG6:BC6"/>
+    <mergeCell ref="M6:AI6"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AF2"/>
-    <mergeCell ref="AG2:BC2"/>
+    <mergeCell ref="M2:AI2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AF3"/>
-    <mergeCell ref="AG3:BC3"/>
+    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E16FF4-E6BC-45D2-A18D-A273232DC529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7DAC19-C80F-410A-AF4E-FDB69EE3E45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>作成日</t>
   </si>
@@ -413,16 +413,6 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>loginIdをLoginID_Textに入力された状態にする。</t>
-    <rPh sb="21" eb="23">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ジョウタイ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -889,19 +879,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -913,19 +903,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1929,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4681,40 +4671,40 @@
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
@@ -4892,45 +4882,45 @@
       <c r="A49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28" t="s">
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28" t="s">
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
@@ -5096,20 +5086,20 @@
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
-      <c r="U53" s="27" t="s">
+      <c r="U53" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="27"/>
-      <c r="AF53" s="27"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="28"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
@@ -5142,7 +5132,7 @@
       <c r="S54" s="26"/>
       <c r="T54" s="26"/>
       <c r="U54" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V54" s="26"/>
       <c r="W54" s="26"/>
@@ -5162,7 +5152,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -5176,7 +5166,7 @@
       <c r="J55" s="26"/>
       <c r="K55" s="26"/>
       <c r="L55" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M55" s="26"/>
       <c r="N55" s="26"/>
@@ -5187,7 +5177,7 @@
       <c r="S55" s="26"/>
       <c r="T55" s="26"/>
       <c r="U55" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V55" s="26"/>
       <c r="W55" s="26"/>
@@ -5277,6 +5267,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:T54"/>
+    <mergeCell ref="U54:AF54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="U51:AF51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
     <mergeCell ref="L56:T56"/>
     <mergeCell ref="U56:AF56"/>
     <mergeCell ref="B57:G57"/>
@@ -5293,28 +5305,6 @@
     <mergeCell ref="U50:AF50"/>
     <mergeCell ref="B51:G51"/>
     <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:T51"/>
-    <mergeCell ref="U51:AF51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:T54"/>
-    <mergeCell ref="U54:AF54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5327,127 +5317,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
@@ -5507,101 +5497,101 @@
       <c r="BC4" s="18"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="29" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="28" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="29" t="s">
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="BE5" s="30"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="30"/>
-      <c r="BI5" s="30"/>
-      <c r="BJ5" s="30"/>
-      <c r="BK5" s="30"/>
-      <c r="BL5" s="30"/>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
-      <c r="BP5" s="30"/>
-      <c r="BQ5" s="30"/>
-      <c r="BR5" s="30"/>
-      <c r="BS5" s="30"/>
-      <c r="BT5" s="30"/>
-      <c r="BU5" s="30"/>
-      <c r="BV5" s="30"/>
-      <c r="BW5" s="30"/>
-      <c r="BX5" s="30"/>
-      <c r="BY5" s="30"/>
-      <c r="BZ5" s="30"/>
-      <c r="CA5" s="30"/>
-      <c r="CB5" s="30"/>
-      <c r="CC5" s="30"/>
-      <c r="CD5" s="30"/>
-      <c r="CE5" s="31"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
+      <c r="BJ5" s="36"/>
+      <c r="BK5" s="36"/>
+      <c r="BL5" s="36"/>
+      <c r="BM5" s="36"/>
+      <c r="BN5" s="36"/>
+      <c r="BO5" s="36"/>
+      <c r="BP5" s="36"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="36"/>
+      <c r="BS5" s="36"/>
+      <c r="BT5" s="36"/>
+      <c r="BU5" s="36"/>
+      <c r="BV5" s="36"/>
+      <c r="BW5" s="36"/>
+      <c r="BX5" s="36"/>
+      <c r="BY5" s="36"/>
+      <c r="BZ5" s="36"/>
+      <c r="CA5" s="36"/>
+      <c r="CB5" s="36"/>
+      <c r="CC5" s="36"/>
+      <c r="CD5" s="36"/>
+      <c r="CE5" s="37"/>
     </row>
     <row r="6" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -5614,63 +5604,63 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="27" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27" t="s">
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="27"/>
-      <c r="AP6" s="27"/>
-      <c r="AQ6" s="27"/>
-      <c r="AR6" s="27"/>
-      <c r="AS6" s="27"/>
-      <c r="AT6" s="27"/>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="27"/>
-      <c r="AW6" s="27"/>
-      <c r="AX6" s="27"/>
-      <c r="AY6" s="27"/>
-      <c r="AZ6" s="27"/>
-      <c r="BA6" s="27"/>
-      <c r="BB6" s="27"/>
-      <c r="BC6" s="27"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="28"/>
+      <c r="BB6" s="28"/>
+      <c r="BC6" s="28"/>
       <c r="BD6" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BE6" s="33"/>
       <c r="BF6" s="33"/>
@@ -5706,70 +5696,60 @@
         <v>2</v>
       </c>
       <c r="B7" s="26"/>
-      <c r="C7" s="32" t="s">
-        <v>47</v>
-      </c>
+      <c r="C7" s="32"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
-      <c r="G7" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="27"/>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="27"/>
-      <c r="AY7" s="27"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="27"/>
-      <c r="BB7" s="27"/>
-      <c r="BC7" s="27"/>
-      <c r="BD7" s="32" t="s">
-        <v>66</v>
-      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="28"/>
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
+      <c r="BD7" s="32"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
       <c r="BG7" s="33"/>
@@ -5808,55 +5788,55 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="27"/>
-      <c r="AY8" s="27"/>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="27"/>
-      <c r="BC8" s="27"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="28"/>
       <c r="BD8" s="32"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
@@ -6001,105 +5981,105 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="28" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28" t="s">
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28" t="s">
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28" t="s">
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="28"/>
-      <c r="AZ11" s="28"/>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="28"/>
-      <c r="BC11" s="28"/>
-      <c r="BD11" s="29" t="s">
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="27"/>
+      <c r="BD11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="30"/>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="30"/>
-      <c r="BI11" s="30"/>
-      <c r="BJ11" s="30"/>
-      <c r="BK11" s="30"/>
-      <c r="BL11" s="30"/>
-      <c r="BM11" s="30"/>
-      <c r="BN11" s="30"/>
-      <c r="BO11" s="30"/>
-      <c r="BP11" s="30"/>
-      <c r="BQ11" s="30"/>
-      <c r="BR11" s="30"/>
-      <c r="BS11" s="30"/>
-      <c r="BT11" s="30"/>
-      <c r="BU11" s="30"/>
-      <c r="BV11" s="30"/>
-      <c r="BW11" s="30"/>
-      <c r="BX11" s="30"/>
-      <c r="BY11" s="30"/>
-      <c r="BZ11" s="30"/>
-      <c r="CA11" s="30"/>
-      <c r="CB11" s="30"/>
-      <c r="CC11" s="30"/>
-      <c r="CD11" s="30"/>
-      <c r="CE11" s="31"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="36"/>
+      <c r="BI11" s="36"/>
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="36"/>
+      <c r="BL11" s="36"/>
+      <c r="BM11" s="36"/>
+      <c r="BN11" s="36"/>
+      <c r="BO11" s="36"/>
+      <c r="BP11" s="36"/>
+      <c r="BQ11" s="36"/>
+      <c r="BR11" s="36"/>
+      <c r="BS11" s="36"/>
+      <c r="BT11" s="36"/>
+      <c r="BU11" s="36"/>
+      <c r="BV11" s="36"/>
+      <c r="BW11" s="36"/>
+      <c r="BX11" s="36"/>
+      <c r="BY11" s="36"/>
+      <c r="BZ11" s="36"/>
+      <c r="CA11" s="36"/>
+      <c r="CB11" s="36"/>
+      <c r="CC11" s="36"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="37"/>
     </row>
     <row r="12" spans="1:83" ht="56.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
@@ -6112,67 +6092,67 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27" t="s">
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27" t="s">
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="27"/>
-      <c r="AS12" s="27"/>
-      <c r="AT12" s="27"/>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="27"/>
-      <c r="AX12" s="27"/>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="27"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="27"/>
-      <c r="BC12" s="27"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
+      <c r="AX12" s="28"/>
+      <c r="AY12" s="28"/>
+      <c r="AZ12" s="28"/>
+      <c r="BA12" s="28"/>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="28"/>
       <c r="BD12" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BE12" s="33"/>
       <c r="BF12" s="33"/>
@@ -6214,65 +6194,65 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="27" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27" t="s">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27" t="s">
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27" t="s">
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="28"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
       <c r="BD13" s="32" t="s">
         <v>49</v>
       </c>
@@ -6316,65 +6296,65 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="27" t="s">
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27" t="s">
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27" t="s">
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27" t="s">
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="27"/>
-      <c r="AR14" s="27"/>
-      <c r="AS14" s="27"/>
-      <c r="AT14" s="27"/>
-      <c r="AU14" s="27"/>
-      <c r="AV14" s="27"/>
-      <c r="AW14" s="27"/>
-      <c r="AX14" s="27"/>
-      <c r="AY14" s="27"/>
-      <c r="AZ14" s="27"/>
-      <c r="BA14" s="27"/>
-      <c r="BB14" s="27"/>
-      <c r="BC14" s="27"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
       <c r="BD14" s="32" t="s">
         <v>49</v>
       </c>
@@ -6418,65 +6398,65 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="27" t="s">
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27" t="s">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27" t="s">
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27" t="s">
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27"/>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="27"/>
-      <c r="AY15" s="27"/>
-      <c r="AZ15" s="27"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="27"/>
-      <c r="BC15" s="27"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
       <c r="BD15" s="32" t="s">
         <v>49</v>
       </c>
@@ -6520,67 +6500,67 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27" t="s">
+      <c r="G16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27" t="s">
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="27"/>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="27"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="27"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="27"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="28"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="28"/>
       <c r="BD16" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BE16" s="33"/>
       <c r="BF16" s="33"/>
@@ -6620,55 +6600,55 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="27"/>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="27"/>
-      <c r="AZ17" s="27"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="27"/>
-      <c r="BC17" s="27"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="28"/>
+      <c r="AT17" s="28"/>
+      <c r="AU17" s="28"/>
+      <c r="AV17" s="28"/>
+      <c r="AW17" s="28"/>
+      <c r="AX17" s="28"/>
+      <c r="AY17" s="28"/>
+      <c r="AZ17" s="28"/>
+      <c r="BA17" s="28"/>
+      <c r="BB17" s="28"/>
+      <c r="BC17" s="28"/>
       <c r="BD17" s="32"/>
       <c r="BE17" s="33"/>
       <c r="BF17" s="33"/>
@@ -6699,103 +6679,103 @@
       <c r="CE17" s="34"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="29" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="28" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28" t="s">
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="28"/>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="28"/>
-      <c r="AT20" s="28"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="28"/>
-      <c r="AY20" s="28"/>
-      <c r="AZ20" s="28"/>
-      <c r="BA20" s="28"/>
-      <c r="BB20" s="28"/>
-      <c r="BC20" s="28"/>
-      <c r="BD20" s="29" t="s">
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="BE20" s="30"/>
-      <c r="BF20" s="30"/>
-      <c r="BG20" s="30"/>
-      <c r="BH20" s="30"/>
-      <c r="BI20" s="30"/>
-      <c r="BJ20" s="30"/>
-      <c r="BK20" s="30"/>
-      <c r="BL20" s="30"/>
-      <c r="BM20" s="30"/>
-      <c r="BN20" s="30"/>
-      <c r="BO20" s="30"/>
-      <c r="BP20" s="30"/>
-      <c r="BQ20" s="30"/>
-      <c r="BR20" s="30"/>
-      <c r="BS20" s="30"/>
-      <c r="BT20" s="30"/>
-      <c r="BU20" s="30"/>
-      <c r="BV20" s="30"/>
-      <c r="BW20" s="30"/>
-      <c r="BX20" s="30"/>
-      <c r="BY20" s="30"/>
-      <c r="BZ20" s="30"/>
-      <c r="CA20" s="30"/>
-      <c r="CB20" s="30"/>
-      <c r="CC20" s="30"/>
-      <c r="CD20" s="30"/>
-      <c r="CE20" s="31"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="36"/>
+      <c r="BR20" s="36"/>
+      <c r="BS20" s="36"/>
+      <c r="BT20" s="36"/>
+      <c r="BU20" s="36"/>
+      <c r="BV20" s="36"/>
+      <c r="BW20" s="36"/>
+      <c r="BX20" s="36"/>
+      <c r="BY20" s="36"/>
+      <c r="BZ20" s="36"/>
+      <c r="CA20" s="36"/>
+      <c r="CB20" s="36"/>
+      <c r="CC20" s="36"/>
+      <c r="CD20" s="36"/>
+      <c r="CE20" s="37"/>
     </row>
     <row r="21" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
@@ -6808,65 +6788,65 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="27" t="s">
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27" t="s">
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="27" t="s">
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="27"/>
-      <c r="AQ21" s="27"/>
-      <c r="AR21" s="27"/>
-      <c r="AS21" s="27"/>
-      <c r="AT21" s="27"/>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="27"/>
-      <c r="AW21" s="27"/>
-      <c r="AX21" s="27"/>
-      <c r="AY21" s="27"/>
-      <c r="AZ21" s="27"/>
-      <c r="BA21" s="27"/>
-      <c r="BB21" s="27"/>
-      <c r="BC21" s="27"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="28"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="28"/>
+      <c r="AW21" s="28"/>
+      <c r="AX21" s="28"/>
+      <c r="AY21" s="28"/>
+      <c r="AZ21" s="28"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="28"/>
+      <c r="BC21" s="28"/>
       <c r="BD21" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BE21" s="33"/>
       <c r="BF21" s="33"/>
@@ -6906,55 +6886,55 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="27"/>
-      <c r="AP22" s="27"/>
-      <c r="AQ22" s="27"/>
-      <c r="AR22" s="27"/>
-      <c r="AS22" s="27"/>
-      <c r="AT22" s="27"/>
-      <c r="AU22" s="27"/>
-      <c r="AV22" s="27"/>
-      <c r="AW22" s="27"/>
-      <c r="AX22" s="27"/>
-      <c r="AY22" s="27"/>
-      <c r="AZ22" s="27"/>
-      <c r="BA22" s="27"/>
-      <c r="BB22" s="27"/>
-      <c r="BC22" s="27"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="28"/>
+      <c r="AY22" s="28"/>
+      <c r="AZ22" s="28"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="28"/>
       <c r="BD22" s="32"/>
       <c r="BE22" s="33"/>
       <c r="BF22" s="33"/>
@@ -6994,55 +6974,55 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="27"/>
-      <c r="AS23" s="27"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
-      <c r="AW23" s="27"/>
-      <c r="AX23" s="27"/>
-      <c r="AY23" s="27"/>
-      <c r="AZ23" s="27"/>
-      <c r="BA23" s="27"/>
-      <c r="BB23" s="27"/>
-      <c r="BC23" s="27"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="28"/>
+      <c r="AT23" s="28"/>
+      <c r="AU23" s="28"/>
+      <c r="AV23" s="28"/>
+      <c r="AW23" s="28"/>
+      <c r="AX23" s="28"/>
+      <c r="AY23" s="28"/>
+      <c r="AZ23" s="28"/>
+      <c r="BA23" s="28"/>
+      <c r="BB23" s="28"/>
+      <c r="BC23" s="28"/>
       <c r="BD23" s="32"/>
       <c r="BE23" s="33"/>
       <c r="BF23" s="33"/>
@@ -7082,55 +7062,55 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="27"/>
-      <c r="AQ24" s="27"/>
-      <c r="AR24" s="27"/>
-      <c r="AS24" s="27"/>
-      <c r="AT24" s="27"/>
-      <c r="AU24" s="27"/>
-      <c r="AV24" s="27"/>
-      <c r="AW24" s="27"/>
-      <c r="AX24" s="27"/>
-      <c r="AY24" s="27"/>
-      <c r="AZ24" s="27"/>
-      <c r="BA24" s="27"/>
-      <c r="BB24" s="27"/>
-      <c r="BC24" s="27"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
+      <c r="AZ24" s="28"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
       <c r="BD24" s="32"/>
       <c r="BE24" s="33"/>
       <c r="BF24" s="33"/>
@@ -7170,55 +7150,55 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-      <c r="AQ25" s="27"/>
-      <c r="AR25" s="27"/>
-      <c r="AS25" s="27"/>
-      <c r="AT25" s="27"/>
-      <c r="AU25" s="27"/>
-      <c r="AV25" s="27"/>
-      <c r="AW25" s="27"/>
-      <c r="AX25" s="27"/>
-      <c r="AY25" s="27"/>
-      <c r="AZ25" s="27"/>
-      <c r="BA25" s="27"/>
-      <c r="BB25" s="27"/>
-      <c r="BC25" s="27"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
+      <c r="AZ25" s="28"/>
+      <c r="BA25" s="28"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="28"/>
       <c r="BD25" s="32"/>
       <c r="BE25" s="33"/>
       <c r="BF25" s="33"/>
@@ -7250,29 +7230,83 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M25:X25"/>
-    <mergeCell ref="Y25:AJ25"/>
-    <mergeCell ref="AK25:BC25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="AK24:BC24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="M23:X23"/>
-    <mergeCell ref="Y23:AJ23"/>
-    <mergeCell ref="AK23:BC23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="M22:X22"/>
-    <mergeCell ref="Y22:AJ22"/>
-    <mergeCell ref="AK22:BC22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="BD25:CE25"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="BD5:CE5"/>
+    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="BD7:CE7"/>
+    <mergeCell ref="BD8:CE8"/>
+    <mergeCell ref="BD11:CE11"/>
+    <mergeCell ref="BD12:CE12"/>
+    <mergeCell ref="BD22:CE22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="BD23:CE23"/>
+    <mergeCell ref="BD24:CE24"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="BD14:CE14"/>
+    <mergeCell ref="BD15:CE15"/>
+    <mergeCell ref="BD16:CE16"/>
+    <mergeCell ref="BD13:CE13"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AN17:BC17"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="M21:X21"/>
     <mergeCell ref="Y21:AJ21"/>
@@ -7297,83 +7331,29 @@
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="M17:U17"/>
     <mergeCell ref="M15:U15"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AN17:BC17"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="BD7:CE7"/>
-    <mergeCell ref="BD8:CE8"/>
-    <mergeCell ref="BD11:CE11"/>
-    <mergeCell ref="BD12:CE12"/>
-    <mergeCell ref="BD22:CE22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="BD23:CE23"/>
-    <mergeCell ref="BD24:CE24"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="BD20:CE20"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="BD14:CE14"/>
-    <mergeCell ref="BD15:CE15"/>
-    <mergeCell ref="BD16:CE16"/>
-    <mergeCell ref="BD13:CE13"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="BD25:CE25"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="BD5:CE5"/>
-    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="M23:X23"/>
+    <mergeCell ref="Y23:AJ23"/>
+    <mergeCell ref="AK23:BC23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="M22:X22"/>
+    <mergeCell ref="Y22:AJ22"/>
+    <mergeCell ref="AK22:BC22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M25:X25"/>
+    <mergeCell ref="Y25:AJ25"/>
+    <mergeCell ref="AK25:BC25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="AK24:BC24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C24:F24"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7390,47 +7370,47 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
     </row>
     <row r="3" spans="1:35" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
@@ -7449,31 +7429,31 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
-      <c r="M3" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
+      <c r="M3" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
@@ -7491,29 +7471,29 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
@@ -7531,29 +7511,29 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -7571,29 +7551,29 @@
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
@@ -7611,32 +7591,38 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -7649,12 +7635,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7DAC19-C80F-410A-AF4E-FDB69EE3E45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D9F168-C2DD-4369-9275-FCA16D453955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -879,9 +879,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -893,29 +911,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1919,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4129,7 +4129,7 @@
       <c r="AJ41" s="20"/>
       <c r="AK41" s="20"/>
       <c r="AL41" s="24">
-        <v>43924</v>
+        <v>43949</v>
       </c>
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
@@ -4671,40 +4671,40 @@
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
+      <c r="T41" s="28"/>
+      <c r="U41" s="28"/>
+      <c r="V41" s="28"/>
+      <c r="W41" s="28"/>
+      <c r="X41" s="28"/>
+      <c r="Y41" s="28"/>
+      <c r="Z41" s="28"/>
+      <c r="AA41" s="28"/>
+      <c r="AB41" s="28"/>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="28"/>
+      <c r="AF41" s="28"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
@@ -4882,45 +4882,45 @@
       <c r="A49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27" t="s">
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27" t="s">
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27" t="s">
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-      <c r="AF49" s="27"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="28"/>
+      <c r="X49" s="28"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="28"/>
+      <c r="AA49" s="28"/>
+      <c r="AB49" s="28"/>
+      <c r="AC49" s="28"/>
+      <c r="AD49" s="28"/>
+      <c r="AE49" s="28"/>
+      <c r="AF49" s="28"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
@@ -5086,20 +5086,20 @@
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
-      <c r="U53" s="28" t="s">
+      <c r="U53" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="V53" s="28"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28"/>
-      <c r="Y53" s="28"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28"/>
-      <c r="AB53" s="28"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28"/>
-      <c r="AE53" s="28"/>
-      <c r="AF53" s="28"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27"/>
+      <c r="AB53" s="27"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27"/>
+      <c r="AE53" s="27"/>
+      <c r="AF53" s="27"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
@@ -5267,6 +5267,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="A41:AF41"/>
+    <mergeCell ref="A42:AF46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:T49"/>
+    <mergeCell ref="U49:AF49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:T50"/>
+    <mergeCell ref="U50:AF50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="U51:AF51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
     <mergeCell ref="L57:T57"/>
     <mergeCell ref="U57:AF57"/>
     <mergeCell ref="B53:G53"/>
@@ -5283,28 +5305,6 @@
     <mergeCell ref="U55:AF55"/>
     <mergeCell ref="B56:G56"/>
     <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L51:T51"/>
-    <mergeCell ref="U51:AF51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="A41:AF41"/>
-    <mergeCell ref="A42:AF46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:T49"/>
-    <mergeCell ref="U49:AF49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:T50"/>
-    <mergeCell ref="U50:AF50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:K51"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5317,127 +5317,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="28"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
@@ -5497,101 +5497,101 @@
       <c r="BC4" s="18"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="35" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="27" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27" t="s">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
+      <c r="AE5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
-      <c r="AW5" s="27"/>
-      <c r="AX5" s="27"/>
-      <c r="AY5" s="27"/>
-      <c r="AZ5" s="27"/>
-      <c r="BA5" s="27"/>
-      <c r="BB5" s="27"/>
-      <c r="BC5" s="27"/>
-      <c r="BD5" s="35" t="s">
+      <c r="AF5" s="28"/>
+      <c r="AG5" s="28"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="28"/>
+      <c r="AL5" s="28"/>
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="28"/>
+      <c r="AO5" s="28"/>
+      <c r="AP5" s="28"/>
+      <c r="AQ5" s="28"/>
+      <c r="AR5" s="28"/>
+      <c r="AS5" s="28"/>
+      <c r="AT5" s="28"/>
+      <c r="AU5" s="28"/>
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="28"/>
+      <c r="AX5" s="28"/>
+      <c r="AY5" s="28"/>
+      <c r="AZ5" s="28"/>
+      <c r="BA5" s="28"/>
+      <c r="BB5" s="28"/>
+      <c r="BC5" s="28"/>
+      <c r="BD5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="36"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="36"/>
-      <c r="BS5" s="36"/>
-      <c r="BT5" s="36"/>
-      <c r="BU5" s="36"/>
-      <c r="BV5" s="36"/>
-      <c r="BW5" s="36"/>
-      <c r="BX5" s="36"/>
-      <c r="BY5" s="36"/>
-      <c r="BZ5" s="36"/>
-      <c r="CA5" s="36"/>
-      <c r="CB5" s="36"/>
-      <c r="CC5" s="36"/>
-      <c r="CD5" s="36"/>
-      <c r="CE5" s="37"/>
+      <c r="BE5" s="30"/>
+      <c r="BF5" s="30"/>
+      <c r="BG5" s="30"/>
+      <c r="BH5" s="30"/>
+      <c r="BI5" s="30"/>
+      <c r="BJ5" s="30"/>
+      <c r="BK5" s="30"/>
+      <c r="BL5" s="30"/>
+      <c r="BM5" s="30"/>
+      <c r="BN5" s="30"/>
+      <c r="BO5" s="30"/>
+      <c r="BP5" s="30"/>
+      <c r="BQ5" s="30"/>
+      <c r="BR5" s="30"/>
+      <c r="BS5" s="30"/>
+      <c r="BT5" s="30"/>
+      <c r="BU5" s="30"/>
+      <c r="BV5" s="30"/>
+      <c r="BW5" s="30"/>
+      <c r="BX5" s="30"/>
+      <c r="BY5" s="30"/>
+      <c r="BZ5" s="30"/>
+      <c r="CA5" s="30"/>
+      <c r="CB5" s="30"/>
+      <c r="CC5" s="30"/>
+      <c r="CD5" s="30"/>
+      <c r="CE5" s="31"/>
     </row>
     <row r="6" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -5604,61 +5604,61 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="28" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="28" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28"/>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="28"/>
-      <c r="AL6" s="28"/>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="28"/>
-      <c r="AO6" s="28"/>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="28"/>
-      <c r="AR6" s="28"/>
-      <c r="AS6" s="28"/>
-      <c r="AT6" s="28"/>
-      <c r="AU6" s="28"/>
-      <c r="AV6" s="28"/>
-      <c r="AW6" s="28"/>
-      <c r="AX6" s="28"/>
-      <c r="AY6" s="28"/>
-      <c r="AZ6" s="28"/>
-      <c r="BA6" s="28"/>
-      <c r="BB6" s="28"/>
-      <c r="BC6" s="28"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="27"/>
+      <c r="AZ6" s="27"/>
+      <c r="BA6" s="27"/>
+      <c r="BB6" s="27"/>
+      <c r="BC6" s="27"/>
       <c r="BD6" s="32" t="s">
         <v>65</v>
       </c>
@@ -5700,55 +5700,55 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="28"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="28"/>
-      <c r="AK7" s="28"/>
-      <c r="AL7" s="28"/>
-      <c r="AM7" s="28"/>
-      <c r="AN7" s="28"/>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
-      <c r="AY7" s="28"/>
-      <c r="AZ7" s="28"/>
-      <c r="BA7" s="28"/>
-      <c r="BB7" s="28"/>
-      <c r="BC7" s="28"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
+      <c r="AU7" s="27"/>
+      <c r="AV7" s="27"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="27"/>
+      <c r="AY7" s="27"/>
+      <c r="AZ7" s="27"/>
+      <c r="BA7" s="27"/>
+      <c r="BB7" s="27"/>
+      <c r="BC7" s="27"/>
       <c r="BD7" s="32"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
@@ -5788,55 +5788,55 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-      <c r="AB8" s="28"/>
-      <c r="AC8" s="28"/>
-      <c r="AD8" s="28"/>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="28"/>
-      <c r="AM8" s="28"/>
-      <c r="AN8" s="28"/>
-      <c r="AO8" s="28"/>
-      <c r="AP8" s="28"/>
-      <c r="AQ8" s="28"/>
-      <c r="AR8" s="28"/>
-      <c r="AS8" s="28"/>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="28"/>
-      <c r="AZ8" s="28"/>
-      <c r="BA8" s="28"/>
-      <c r="BB8" s="28"/>
-      <c r="BC8" s="28"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="27"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="27"/>
+      <c r="AY8" s="27"/>
+      <c r="AZ8" s="27"/>
+      <c r="BA8" s="27"/>
+      <c r="BB8" s="27"/>
+      <c r="BC8" s="27"/>
       <c r="BD8" s="32"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
@@ -5981,105 +5981,105 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="35" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="35" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="27" t="s">
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27" t="s">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27" t="s">
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27" t="s">
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="28"/>
+      <c r="AL11" s="28"/>
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="27"/>
-      <c r="AS11" s="27"/>
-      <c r="AT11" s="27"/>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="27"/>
-      <c r="AW11" s="27"/>
-      <c r="AX11" s="27"/>
-      <c r="AY11" s="27"/>
-      <c r="AZ11" s="27"/>
-      <c r="BA11" s="27"/>
-      <c r="BB11" s="27"/>
-      <c r="BC11" s="27"/>
-      <c r="BD11" s="35" t="s">
+      <c r="AO11" s="28"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="28"/>
+      <c r="AR11" s="28"/>
+      <c r="AS11" s="28"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="28"/>
+      <c r="AV11" s="28"/>
+      <c r="AW11" s="28"/>
+      <c r="AX11" s="28"/>
+      <c r="AY11" s="28"/>
+      <c r="AZ11" s="28"/>
+      <c r="BA11" s="28"/>
+      <c r="BB11" s="28"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="36"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="36"/>
-      <c r="BI11" s="36"/>
-      <c r="BJ11" s="36"/>
-      <c r="BK11" s="36"/>
-      <c r="BL11" s="36"/>
-      <c r="BM11" s="36"/>
-      <c r="BN11" s="36"/>
-      <c r="BO11" s="36"/>
-      <c r="BP11" s="36"/>
-      <c r="BQ11" s="36"/>
-      <c r="BR11" s="36"/>
-      <c r="BS11" s="36"/>
-      <c r="BT11" s="36"/>
-      <c r="BU11" s="36"/>
-      <c r="BV11" s="36"/>
-      <c r="BW11" s="36"/>
-      <c r="BX11" s="36"/>
-      <c r="BY11" s="36"/>
-      <c r="BZ11" s="36"/>
-      <c r="CA11" s="36"/>
-      <c r="CB11" s="36"/>
-      <c r="CC11" s="36"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="37"/>
+      <c r="BE11" s="30"/>
+      <c r="BF11" s="30"/>
+      <c r="BG11" s="30"/>
+      <c r="BH11" s="30"/>
+      <c r="BI11" s="30"/>
+      <c r="BJ11" s="30"/>
+      <c r="BK11" s="30"/>
+      <c r="BL11" s="30"/>
+      <c r="BM11" s="30"/>
+      <c r="BN11" s="30"/>
+      <c r="BO11" s="30"/>
+      <c r="BP11" s="30"/>
+      <c r="BQ11" s="30"/>
+      <c r="BR11" s="30"/>
+      <c r="BS11" s="30"/>
+      <c r="BT11" s="30"/>
+      <c r="BU11" s="30"/>
+      <c r="BV11" s="30"/>
+      <c r="BW11" s="30"/>
+      <c r="BX11" s="30"/>
+      <c r="BY11" s="30"/>
+      <c r="BZ11" s="30"/>
+      <c r="CA11" s="30"/>
+      <c r="CB11" s="30"/>
+      <c r="CC11" s="30"/>
+      <c r="CD11" s="30"/>
+      <c r="CE11" s="31"/>
     </row>
     <row r="12" spans="1:83" ht="56.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
@@ -6092,65 +6092,65 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="28" t="s">
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28" t="s">
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28" t="s">
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="28"/>
-      <c r="AM12" s="28"/>
-      <c r="AN12" s="28" t="s">
+      <c r="AF12" s="27"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27"/>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="28"/>
-      <c r="BA12" s="28"/>
-      <c r="BB12" s="28"/>
-      <c r="BC12" s="28"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="27"/>
+      <c r="AW12" s="27"/>
+      <c r="AX12" s="27"/>
+      <c r="AY12" s="27"/>
+      <c r="AZ12" s="27"/>
+      <c r="BA12" s="27"/>
+      <c r="BB12" s="27"/>
+      <c r="BC12" s="27"/>
       <c r="BD12" s="32" t="s">
         <v>66</v>
       </c>
@@ -6194,65 +6194,65 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="28" t="s">
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28" t="s">
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
-      <c r="AD13" s="28"/>
-      <c r="AE13" s="28" t="s">
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AF13" s="28"/>
-      <c r="AG13" s="28"/>
-      <c r="AH13" s="28"/>
-      <c r="AI13" s="28"/>
-      <c r="AJ13" s="28"/>
-      <c r="AK13" s="28"/>
-      <c r="AL13" s="28"/>
-      <c r="AM13" s="28"/>
-      <c r="AN13" s="28" t="s">
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="AO13" s="28"/>
-      <c r="AP13" s="28"/>
-      <c r="AQ13" s="28"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="28"/>
-      <c r="AZ13" s="28"/>
-      <c r="BA13" s="28"/>
-      <c r="BB13" s="28"/>
-      <c r="BC13" s="28"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="27"/>
+      <c r="AZ13" s="27"/>
+      <c r="BA13" s="27"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="27"/>
       <c r="BD13" s="32" t="s">
         <v>49</v>
       </c>
@@ -6296,65 +6296,65 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="28" t="s">
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28" t="s">
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28" t="s">
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="28"/>
-      <c r="AM14" s="28"/>
-      <c r="AN14" s="28" t="s">
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AO14" s="28"/>
-      <c r="AP14" s="28"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="28"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="27"/>
+      <c r="AZ14" s="27"/>
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="27"/>
+      <c r="BC14" s="27"/>
       <c r="BD14" s="32" t="s">
         <v>49</v>
       </c>
@@ -6398,65 +6398,65 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="28" t="s">
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28" t="s">
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28"/>
-      <c r="AE15" s="28" t="s">
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AF15" s="28"/>
-      <c r="AG15" s="28"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="28"/>
-      <c r="AK15" s="28"/>
-      <c r="AL15" s="28"/>
-      <c r="AM15" s="28"/>
-      <c r="AN15" s="28" t="s">
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="28"/>
-      <c r="BA15" s="28"/>
-      <c r="BB15" s="28"/>
-      <c r="BC15" s="28"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
+      <c r="AW15" s="27"/>
+      <c r="AX15" s="27"/>
+      <c r="AY15" s="27"/>
+      <c r="AZ15" s="27"/>
+      <c r="BA15" s="27"/>
+      <c r="BB15" s="27"/>
+      <c r="BC15" s="27"/>
       <c r="BD15" s="32" t="s">
         <v>49</v>
       </c>
@@ -6500,65 +6500,65 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="28" t="s">
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28" t="s">
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28" t="s">
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="28"/>
-      <c r="AM16" s="28"/>
-      <c r="AN16" s="28" t="s">
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AO16" s="28"/>
-      <c r="AP16" s="28"/>
-      <c r="AQ16" s="28"/>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
-      <c r="BA16" s="28"/>
-      <c r="BB16" s="28"/>
-      <c r="BC16" s="28"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
       <c r="BD16" s="32" t="s">
         <v>67</v>
       </c>
@@ -6600,55 +6600,55 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28"/>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
-      <c r="AE17" s="28"/>
-      <c r="AF17" s="28"/>
-      <c r="AG17" s="28"/>
-      <c r="AH17" s="28"/>
-      <c r="AI17" s="28"/>
-      <c r="AJ17" s="28"/>
-      <c r="AK17" s="28"/>
-      <c r="AL17" s="28"/>
-      <c r="AM17" s="28"/>
-      <c r="AN17" s="28"/>
-      <c r="AO17" s="28"/>
-      <c r="AP17" s="28"/>
-      <c r="AQ17" s="28"/>
-      <c r="AR17" s="28"/>
-      <c r="AS17" s="28"/>
-      <c r="AT17" s="28"/>
-      <c r="AU17" s="28"/>
-      <c r="AV17" s="28"/>
-      <c r="AW17" s="28"/>
-      <c r="AX17" s="28"/>
-      <c r="AY17" s="28"/>
-      <c r="AZ17" s="28"/>
-      <c r="BA17" s="28"/>
-      <c r="BB17" s="28"/>
-      <c r="BC17" s="28"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="27"/>
+      <c r="AV17" s="27"/>
+      <c r="AW17" s="27"/>
+      <c r="AX17" s="27"/>
+      <c r="AY17" s="27"/>
+      <c r="AZ17" s="27"/>
+      <c r="BA17" s="27"/>
+      <c r="BB17" s="27"/>
+      <c r="BC17" s="27"/>
       <c r="BD17" s="32"/>
       <c r="BE17" s="33"/>
       <c r="BF17" s="33"/>
@@ -6679,103 +6679,103 @@
       <c r="CE17" s="34"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="35" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="35" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="27" t="s">
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="27" t="s">
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27" t="s">
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="27"/>
-      <c r="AR20" s="27"/>
-      <c r="AS20" s="27"/>
-      <c r="AT20" s="27"/>
-      <c r="AU20" s="27"/>
-      <c r="AV20" s="27"/>
-      <c r="AW20" s="27"/>
-      <c r="AX20" s="27"/>
-      <c r="AY20" s="27"/>
-      <c r="AZ20" s="27"/>
-      <c r="BA20" s="27"/>
-      <c r="BB20" s="27"/>
-      <c r="BC20" s="27"/>
-      <c r="BD20" s="35" t="s">
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="28"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="28"/>
+      <c r="AX20" s="28"/>
+      <c r="AY20" s="28"/>
+      <c r="AZ20" s="28"/>
+      <c r="BA20" s="28"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="BE20" s="36"/>
-      <c r="BF20" s="36"/>
-      <c r="BG20" s="36"/>
-      <c r="BH20" s="36"/>
-      <c r="BI20" s="36"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="36"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="36"/>
-      <c r="BQ20" s="36"/>
-      <c r="BR20" s="36"/>
-      <c r="BS20" s="36"/>
-      <c r="BT20" s="36"/>
-      <c r="BU20" s="36"/>
-      <c r="BV20" s="36"/>
-      <c r="BW20" s="36"/>
-      <c r="BX20" s="36"/>
-      <c r="BY20" s="36"/>
-      <c r="BZ20" s="36"/>
-      <c r="CA20" s="36"/>
-      <c r="CB20" s="36"/>
-      <c r="CC20" s="36"/>
-      <c r="CD20" s="36"/>
-      <c r="CE20" s="37"/>
+      <c r="BE20" s="30"/>
+      <c r="BF20" s="30"/>
+      <c r="BG20" s="30"/>
+      <c r="BH20" s="30"/>
+      <c r="BI20" s="30"/>
+      <c r="BJ20" s="30"/>
+      <c r="BK20" s="30"/>
+      <c r="BL20" s="30"/>
+      <c r="BM20" s="30"/>
+      <c r="BN20" s="30"/>
+      <c r="BO20" s="30"/>
+      <c r="BP20" s="30"/>
+      <c r="BQ20" s="30"/>
+      <c r="BR20" s="30"/>
+      <c r="BS20" s="30"/>
+      <c r="BT20" s="30"/>
+      <c r="BU20" s="30"/>
+      <c r="BV20" s="30"/>
+      <c r="BW20" s="30"/>
+      <c r="BX20" s="30"/>
+      <c r="BY20" s="30"/>
+      <c r="BZ20" s="30"/>
+      <c r="CA20" s="30"/>
+      <c r="CB20" s="30"/>
+      <c r="CC20" s="30"/>
+      <c r="CD20" s="30"/>
+      <c r="CE20" s="31"/>
     </row>
     <row r="21" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
@@ -6788,63 +6788,63 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="28" t="s">
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28" t="s">
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="28"/>
-      <c r="AJ21" s="28"/>
-      <c r="AK21" s="28" t="s">
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AL21" s="28"/>
-      <c r="AM21" s="28"/>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="28"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="28"/>
-      <c r="AU21" s="28"/>
-      <c r="AV21" s="28"/>
-      <c r="AW21" s="28"/>
-      <c r="AX21" s="28"/>
-      <c r="AY21" s="28"/>
-      <c r="AZ21" s="28"/>
-      <c r="BA21" s="28"/>
-      <c r="BB21" s="28"/>
-      <c r="BC21" s="28"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="27"/>
+      <c r="AW21" s="27"/>
+      <c r="AX21" s="27"/>
+      <c r="AY21" s="27"/>
+      <c r="AZ21" s="27"/>
+      <c r="BA21" s="27"/>
+      <c r="BB21" s="27"/>
+      <c r="BC21" s="27"/>
       <c r="BD21" s="32" t="s">
         <v>68</v>
       </c>
@@ -6886,55 +6886,55 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="28"/>
-      <c r="AD22" s="28"/>
-      <c r="AE22" s="28"/>
-      <c r="AF22" s="28"/>
-      <c r="AG22" s="28"/>
-      <c r="AH22" s="28"/>
-      <c r="AI22" s="28"/>
-      <c r="AJ22" s="28"/>
-      <c r="AK22" s="28"/>
-      <c r="AL22" s="28"/>
-      <c r="AM22" s="28"/>
-      <c r="AN22" s="28"/>
-      <c r="AO22" s="28"/>
-      <c r="AP22" s="28"/>
-      <c r="AQ22" s="28"/>
-      <c r="AR22" s="28"/>
-      <c r="AS22" s="28"/>
-      <c r="AT22" s="28"/>
-      <c r="AU22" s="28"/>
-      <c r="AV22" s="28"/>
-      <c r="AW22" s="28"/>
-      <c r="AX22" s="28"/>
-      <c r="AY22" s="28"/>
-      <c r="AZ22" s="28"/>
-      <c r="BA22" s="28"/>
-      <c r="BB22" s="28"/>
-      <c r="BC22" s="28"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="27"/>
+      <c r="AW22" s="27"/>
+      <c r="AX22" s="27"/>
+      <c r="AY22" s="27"/>
+      <c r="AZ22" s="27"/>
+      <c r="BA22" s="27"/>
+      <c r="BB22" s="27"/>
+      <c r="BC22" s="27"/>
       <c r="BD22" s="32"/>
       <c r="BE22" s="33"/>
       <c r="BF22" s="33"/>
@@ -6974,55 +6974,55 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28"/>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="28"/>
-      <c r="AI23" s="28"/>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28"/>
-      <c r="AM23" s="28"/>
-      <c r="AN23" s="28"/>
-      <c r="AO23" s="28"/>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28"/>
-      <c r="AR23" s="28"/>
-      <c r="AS23" s="28"/>
-      <c r="AT23" s="28"/>
-      <c r="AU23" s="28"/>
-      <c r="AV23" s="28"/>
-      <c r="AW23" s="28"/>
-      <c r="AX23" s="28"/>
-      <c r="AY23" s="28"/>
-      <c r="AZ23" s="28"/>
-      <c r="BA23" s="28"/>
-      <c r="BB23" s="28"/>
-      <c r="BC23" s="28"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="27"/>
+      <c r="AW23" s="27"/>
+      <c r="AX23" s="27"/>
+      <c r="AY23" s="27"/>
+      <c r="AZ23" s="27"/>
+      <c r="BA23" s="27"/>
+      <c r="BB23" s="27"/>
+      <c r="BC23" s="27"/>
       <c r="BD23" s="32"/>
       <c r="BE23" s="33"/>
       <c r="BF23" s="33"/>
@@ -7062,55 +7062,55 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="28"/>
-      <c r="AM24" s="28"/>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="28"/>
-      <c r="BA24" s="28"/>
-      <c r="BB24" s="28"/>
-      <c r="BC24" s="28"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="27"/>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="27"/>
+      <c r="AW24" s="27"/>
+      <c r="AX24" s="27"/>
+      <c r="AY24" s="27"/>
+      <c r="AZ24" s="27"/>
+      <c r="BA24" s="27"/>
+      <c r="BB24" s="27"/>
+      <c r="BC24" s="27"/>
       <c r="BD24" s="32"/>
       <c r="BE24" s="33"/>
       <c r="BF24" s="33"/>
@@ -7150,55 +7150,55 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28"/>
-      <c r="AP25" s="28"/>
-      <c r="AQ25" s="28"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="28"/>
-      <c r="AW25" s="28"/>
-      <c r="AX25" s="28"/>
-      <c r="AY25" s="28"/>
-      <c r="AZ25" s="28"/>
-      <c r="BA25" s="28"/>
-      <c r="BB25" s="28"/>
-      <c r="BC25" s="28"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AS25" s="27"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="27"/>
+      <c r="AV25" s="27"/>
+      <c r="AW25" s="27"/>
+      <c r="AX25" s="27"/>
+      <c r="AY25" s="27"/>
+      <c r="AZ25" s="27"/>
+      <c r="BA25" s="27"/>
+      <c r="BB25" s="27"/>
+      <c r="BC25" s="27"/>
       <c r="BD25" s="32"/>
       <c r="BE25" s="33"/>
       <c r="BF25" s="33"/>
@@ -7230,6 +7230,106 @@
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M25:X25"/>
+    <mergeCell ref="Y25:AJ25"/>
+    <mergeCell ref="AK25:BC25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="AK24:BC24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="M23:X23"/>
+    <mergeCell ref="Y23:AJ23"/>
+    <mergeCell ref="AK23:BC23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="M22:X22"/>
+    <mergeCell ref="Y22:AJ22"/>
+    <mergeCell ref="AK22:BC22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="M21:X21"/>
+    <mergeCell ref="Y21:AJ21"/>
+    <mergeCell ref="AK21:BC21"/>
+    <mergeCell ref="AK20:BC20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="M20:X20"/>
+    <mergeCell ref="Y20:AJ20"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="V17:AD17"/>
+    <mergeCell ref="AE17:AM17"/>
+    <mergeCell ref="M17:U17"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AN17:BC17"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="BD7:CE7"/>
+    <mergeCell ref="BD8:CE8"/>
+    <mergeCell ref="BD11:CE11"/>
+    <mergeCell ref="BD12:CE12"/>
+    <mergeCell ref="BD22:CE22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="BD23:CE23"/>
+    <mergeCell ref="BD24:CE24"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="BD14:CE14"/>
+    <mergeCell ref="BD15:CE15"/>
+    <mergeCell ref="BD16:CE16"/>
+    <mergeCell ref="BD13:CE13"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="G17:L17"/>
@@ -7254,106 +7354,6 @@
     <mergeCell ref="G16:L16"/>
     <mergeCell ref="BD5:CE5"/>
     <mergeCell ref="BD6:CE6"/>
-    <mergeCell ref="BD7:CE7"/>
-    <mergeCell ref="BD8:CE8"/>
-    <mergeCell ref="BD11:CE11"/>
-    <mergeCell ref="BD12:CE12"/>
-    <mergeCell ref="BD22:CE22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="BD23:CE23"/>
-    <mergeCell ref="BD24:CE24"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="BD20:CE20"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="BD14:CE14"/>
-    <mergeCell ref="BD15:CE15"/>
-    <mergeCell ref="BD16:CE16"/>
-    <mergeCell ref="BD13:CE13"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AN17:BC17"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="M21:X21"/>
-    <mergeCell ref="Y21:AJ21"/>
-    <mergeCell ref="AK21:BC21"/>
-    <mergeCell ref="AK20:BC20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="M20:X20"/>
-    <mergeCell ref="Y20:AJ20"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="V17:AD17"/>
-    <mergeCell ref="AE17:AM17"/>
-    <mergeCell ref="M17:U17"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="M23:X23"/>
-    <mergeCell ref="Y23:AJ23"/>
-    <mergeCell ref="AK23:BC23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="M22:X22"/>
-    <mergeCell ref="Y22:AJ22"/>
-    <mergeCell ref="AK22:BC22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M25:X25"/>
-    <mergeCell ref="Y25:AJ25"/>
-    <mergeCell ref="AK25:BC25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="AK24:BC24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C24:F24"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7370,47 +7370,47 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
     </row>
     <row r="3" spans="1:35" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
@@ -7429,31 +7429,31 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
@@ -7471,29 +7471,29 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
@@ -7511,29 +7511,29 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -7551,29 +7551,29 @@
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
@@ -7591,38 +7591,32 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -7635,6 +7629,12 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="102">
   <si>
     <t xml:space="preserve">DS画面詳細設計書 テンプレート</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t xml:space="preserve">ログインボタン押下処理：Login_Button_OnClick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">1-1.</t>
@@ -578,7 +581,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -763,6 +766,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,9 +858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>232560</xdr:colOff>
+      <xdr:colOff>232200</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -859,7 +870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="167400"/>
-          <a:ext cx="5111640" cy="3999960"/>
+          <a:ext cx="5111280" cy="3999600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -899,9 +910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>232560</xdr:colOff>
+      <xdr:colOff>232200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -911,7 +922,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="167400"/>
-          <a:ext cx="5111640" cy="303120"/>
+          <a:ext cx="5111280" cy="302760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -984,9 +995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>110160</xdr:colOff>
+      <xdr:colOff>109800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -996,7 +1007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1738800" y="2882160"/>
-          <a:ext cx="1241280" cy="346680"/>
+          <a:ext cx="1240920" cy="346320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1058,9 +1069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>213480</xdr:colOff>
+      <xdr:colOff>213120</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1070,7 +1081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2410560" y="1602360"/>
-          <a:ext cx="1533960" cy="272160"/>
+          <a:ext cx="1533600" cy="271800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1132,9 +1143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>286920</xdr:colOff>
+      <xdr:colOff>286560</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1144,7 +1155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="936360" y="1591920"/>
-          <a:ext cx="1359360" cy="270360"/>
+          <a:ext cx="1359000" cy="270000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,9 +1226,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>236160</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1227,7 +1238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2433600" y="2017440"/>
-          <a:ext cx="1533960" cy="271800"/>
+          <a:ext cx="1533600" cy="271440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1289,9 +1300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>271440</xdr:colOff>
+      <xdr:colOff>271080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1301,7 +1312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="915840" y="2026080"/>
-          <a:ext cx="1364400" cy="270360"/>
+          <a:ext cx="1364040" cy="270000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1363,9 +1374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>178560</xdr:colOff>
+      <xdr:colOff>178200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1375,7 +1386,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4234680" y="535680"/>
-          <a:ext cx="822960" cy="346680"/>
+          <a:ext cx="822600" cy="346320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1442,9 +1453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>61560</xdr:colOff>
+      <xdr:colOff>61200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1458,7 +1469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5356800" cy="10209600"/>
+          <a:ext cx="5356440" cy="10209240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1480,11 +1491,11 @@
       <xdr:col>42</xdr:col>
       <xdr:colOff>100440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>161640</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -1499,8 +1510,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7247880" y="5963760"/>
-          <a:ext cx="5337000" cy="10209600"/>
+          <a:off x="7247880" y="5964120"/>
+          <a:ext cx="5336640" cy="10209240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1522,7 +1533,7 @@
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4274,7 +4285,7 @@
   </sheetPr>
   <dimension ref="A41:AF57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4934,7 +4945,7 @@
   </sheetPr>
   <dimension ref="A2:CE25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6991,7 +7002,7 @@
   </sheetPr>
   <dimension ref="A2:AI7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7281,7 +7292,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7303,9 +7314,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CE64"/>
+  <dimension ref="A1:CE1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8911,7 +8922,8 @@
       <c r="CE25" s="38"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
@@ -8934,101 +8946,154 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="38"/>
-      <c r="C27" s="45" t="s">
+      <c r="B27" s="45"/>
+      <c r="C27" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="F27" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
+      <c r="G27" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
       <c r="CE27" s="38"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="38"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="F28" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0"/>
       <c r="CE28" s="38"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="38"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
-      <c r="E29" s="32" t="s">
-        <v>79</v>
-      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="45"/>
-      <c r="H29" s="32" t="s">
-        <v>80</v>
-      </c>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
       <c r="CE29" s="38"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="38"/>
-      <c r="C30" s="45"/>
+      <c r="C30" s="45" t="s">
+        <v>78</v>
+      </c>
       <c r="D30" s="45"/>
-      <c r="G30" s="45"/>
+      <c r="E30" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
       <c r="CE30" s="38"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="38"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="32" t="s">
-        <v>81</v>
-      </c>
       <c r="CE31" s="38"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="38"/>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
-      <c r="G32" s="45"/>
+      <c r="E32" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="47"/>
       <c r="H32" s="32" t="s">
-        <v>82</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
+      <c r="L32" s="0"/>
       <c r="CE32" s="38"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="38"/>
       <c r="C33" s="45"/>
       <c r="D33" s="45"/>
+      <c r="E33" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="H33" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
+      <c r="L33" s="0"/>
       <c r="CE33" s="38"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="38"/>
-      <c r="C34" s="45" t="s">
-        <v>83</v>
-      </c>
+      <c r="C34" s="45"/>
       <c r="D34" s="45"/>
-      <c r="E34" s="42" t="s">
-        <v>84</v>
-      </c>
+      <c r="G34" s="45"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
       <c r="CE34" s="38"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="38"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
+      <c r="E35" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="CE35" s="38"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="38"/>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
-      <c r="E36" s="32" t="s">
-        <v>85</v>
-      </c>
       <c r="G36" s="45"/>
-      <c r="H36" s="32" t="s">
-        <v>80</v>
-      </c>
       <c r="CE36" s="38"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9036,6 +9101,14 @@
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
       <c r="G37" s="45"/>
+      <c r="H37" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="X37" s="0"/>
+      <c r="Y37" s="0"/>
+      <c r="Z37" s="0"/>
+      <c r="AA37" s="0"/>
+      <c r="AB37" s="0"/>
       <c r="CE37" s="38"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9044,71 +9117,89 @@
       <c r="D38" s="45"/>
       <c r="G38" s="45"/>
       <c r="H38" s="32" t="s">
-        <v>81</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="X38" s="0"/>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0"/>
+      <c r="AB38" s="0"/>
       <c r="CE38" s="38"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="38"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="32" t="s">
-        <v>82</v>
-      </c>
       <c r="CE39" s="38"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="38"/>
-      <c r="C40" s="45"/>
+      <c r="C40" s="45" t="s">
+        <v>84</v>
+      </c>
       <c r="D40" s="45"/>
+      <c r="E40" s="42" t="s">
+        <v>85</v>
+      </c>
       <c r="CE40" s="38"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="38"/>
-      <c r="C41" s="45" t="s">
-        <v>86</v>
-      </c>
+      <c r="C41" s="45"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="32" t="s">
-        <v>87</v>
-      </c>
+      <c r="E41" s="42"/>
       <c r="CE41" s="38"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="38"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
+      <c r="E42" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="H42" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="0"/>
       <c r="CE42" s="38"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="38"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
-      <c r="E43" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G43" s="45"/>
+      <c r="E43" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="47"/>
       <c r="H43" s="32" t="s">
-        <v>89</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="0"/>
       <c r="CE43" s="38"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="38"/>
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
-      <c r="G44" s="45"/>
       <c r="CE44" s="38"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="38"/>
       <c r="C45" s="45"/>
       <c r="D45" s="45"/>
+      <c r="E45" s="32" t="s">
+        <v>86</v>
+      </c>
       <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="32" t="s">
-        <v>90</v>
+      <c r="H45" s="32" t="s">
+        <v>81</v>
       </c>
       <c r="CE45" s="38"/>
     </row>
@@ -9117,10 +9208,6 @@
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
       <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="J46" s="32" t="s">
-        <v>91</v>
-      </c>
       <c r="CE46" s="38"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9128,10 +9215,11 @@
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
       <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="32" t="s">
-        <v>92</v>
-      </c>
+      <c r="H47" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="47"/>
       <c r="CE47" s="38"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9139,186 +9227,393 @@
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
       <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="J48" s="32" t="s">
-        <v>93</v>
-      </c>
+      <c r="H48" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="47"/>
       <c r="CE48" s="38"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="38"/>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="CE49" s="38"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="38"/>
-      <c r="C50" s="45"/>
+      <c r="C50" s="45" t="s">
+        <v>87</v>
+      </c>
       <c r="D50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="45"/>
-      <c r="J50" s="32" t="s">
-        <v>95</v>
+      <c r="E50" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="CE50" s="38"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="38"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
       <c r="CE51" s="38"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="38"/>
-      <c r="B52" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="45" t="s">
-        <v>97</v>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="47"/>
+      <c r="H52" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>39</v>
       </c>
       <c r="CE52" s="38"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="38"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="47"/>
+      <c r="H53" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>50</v>
+      </c>
       <c r="CE53" s="38"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="38"/>
-      <c r="C54" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>99</v>
-      </c>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
       <c r="CE54" s="38"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="38"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="45"/>
+      <c r="H55" s="32" t="s">
+        <v>90</v>
+      </c>
       <c r="CE55" s="38"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="38"/>
-      <c r="E56" s="32" t="s">
-        <v>100</v>
-      </c>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="G56" s="45"/>
       <c r="CE56" s="38"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="38"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="32" t="s">
+        <v>91</v>
+      </c>
       <c r="CE57" s="38"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="38"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="J58" s="32" t="s">
+        <v>92</v>
+      </c>
       <c r="CE58" s="38"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="38"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="32" t="s">
+        <v>93</v>
+      </c>
       <c r="CE59" s="38"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="38"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="J60" s="32" t="s">
+        <v>94</v>
+      </c>
       <c r="CE60" s="38"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="38"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="CE61" s="38"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="38"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="J62" s="32" t="s">
+        <v>96</v>
+      </c>
       <c r="CE62" s="38"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="38"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
       <c r="CE63" s="38"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
-      <c r="Q64" s="38"/>
-      <c r="R64" s="38"/>
-      <c r="S64" s="38"/>
-      <c r="T64" s="38"/>
-      <c r="U64" s="38"/>
-      <c r="V64" s="38"/>
-      <c r="W64" s="38"/>
-      <c r="X64" s="38"/>
-      <c r="Y64" s="38"/>
-      <c r="Z64" s="38"/>
-      <c r="AA64" s="38"/>
-      <c r="AB64" s="38"/>
-      <c r="AC64" s="38"/>
-      <c r="AD64" s="38"/>
-      <c r="AE64" s="38"/>
-      <c r="AF64" s="38"/>
-      <c r="AG64" s="38"/>
-      <c r="AH64" s="38"/>
-      <c r="AI64" s="38"/>
-      <c r="AJ64" s="38"/>
-      <c r="AK64" s="38"/>
-      <c r="AL64" s="38"/>
-      <c r="AM64" s="38"/>
-      <c r="AN64" s="38"/>
-      <c r="AO64" s="38"/>
-      <c r="AP64" s="38"/>
-      <c r="AQ64" s="38"/>
-      <c r="AR64" s="38"/>
-      <c r="AS64" s="38"/>
-      <c r="AT64" s="38"/>
-      <c r="AU64" s="38"/>
-      <c r="AV64" s="38"/>
-      <c r="AW64" s="38"/>
-      <c r="AX64" s="38"/>
-      <c r="AY64" s="38"/>
-      <c r="AZ64" s="38"/>
-      <c r="BA64" s="38"/>
-      <c r="BB64" s="38"/>
-      <c r="BC64" s="38"/>
-      <c r="BD64" s="38"/>
-      <c r="BE64" s="38"/>
-      <c r="BF64" s="38"/>
-      <c r="BG64" s="38"/>
-      <c r="BH64" s="38"/>
-      <c r="BI64" s="38"/>
-      <c r="BJ64" s="38"/>
-      <c r="BK64" s="38"/>
-      <c r="BL64" s="38"/>
-      <c r="BM64" s="38"/>
-      <c r="BN64" s="38"/>
-      <c r="BO64" s="38"/>
-      <c r="BP64" s="38"/>
-      <c r="BQ64" s="38"/>
-      <c r="BR64" s="38"/>
-      <c r="BS64" s="38"/>
-      <c r="BT64" s="38"/>
-      <c r="BU64" s="38"/>
-      <c r="BV64" s="38"/>
-      <c r="BW64" s="38"/>
-      <c r="BX64" s="38"/>
-      <c r="BY64" s="38"/>
-      <c r="BZ64" s="38"/>
-      <c r="CA64" s="38"/>
-      <c r="CB64" s="38"/>
-      <c r="CC64" s="38"/>
-      <c r="CD64" s="38"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" s="47"/>
+      <c r="K64" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>61</v>
+      </c>
       <c r="CE64" s="38"/>
     </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="38"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" s="47"/>
+      <c r="K65" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="L65" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="CE65" s="38"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="38"/>
+      <c r="CE66" s="38"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="38"/>
+      <c r="B67" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="CE67" s="38"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="38"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
+      <c r="CE68" s="38"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="38"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D69" s="47"/>
+      <c r="F69" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H69" s="0"/>
+      <c r="CE69" s="38"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="38"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" s="47"/>
+      <c r="F70" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G70" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="0"/>
+      <c r="CE70" s="38"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="38"/>
+      <c r="CE71" s="38"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="38"/>
+      <c r="C72" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="CE72" s="38"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="38"/>
+      <c r="CE73" s="38"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="38"/>
+      <c r="E74" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="CE74" s="38"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="38"/>
+      <c r="CE75" s="38"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="38"/>
+      <c r="CE76" s="38"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="38"/>
+      <c r="CE77" s="38"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="38"/>
+      <c r="CE78" s="38"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="38"/>
+      <c r="CE79" s="38"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="38"/>
+      <c r="CE80" s="38"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="38"/>
+      <c r="CE81" s="38"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38"/>
+      <c r="E82" s="38"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="38"/>
+      <c r="M82" s="38"/>
+      <c r="N82" s="38"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
+      <c r="Q82" s="38"/>
+      <c r="R82" s="38"/>
+      <c r="S82" s="38"/>
+      <c r="T82" s="38"/>
+      <c r="U82" s="38"/>
+      <c r="V82" s="38"/>
+      <c r="W82" s="38"/>
+      <c r="X82" s="38"/>
+      <c r="Y82" s="38"/>
+      <c r="Z82" s="38"/>
+      <c r="AA82" s="38"/>
+      <c r="AB82" s="38"/>
+      <c r="AC82" s="38"/>
+      <c r="AD82" s="38"/>
+      <c r="AE82" s="38"/>
+      <c r="AF82" s="38"/>
+      <c r="AG82" s="38"/>
+      <c r="AH82" s="38"/>
+      <c r="AI82" s="38"/>
+      <c r="AJ82" s="38"/>
+      <c r="AK82" s="38"/>
+      <c r="AL82" s="38"/>
+      <c r="AM82" s="38"/>
+      <c r="AN82" s="38"/>
+      <c r="AO82" s="38"/>
+      <c r="AP82" s="38"/>
+      <c r="AQ82" s="38"/>
+      <c r="AR82" s="38"/>
+      <c r="AS82" s="38"/>
+      <c r="AT82" s="38"/>
+      <c r="AU82" s="38"/>
+      <c r="AV82" s="38"/>
+      <c r="AW82" s="38"/>
+      <c r="AX82" s="38"/>
+      <c r="AY82" s="38"/>
+      <c r="AZ82" s="38"/>
+      <c r="BA82" s="38"/>
+      <c r="BB82" s="38"/>
+      <c r="BC82" s="38"/>
+      <c r="BD82" s="38"/>
+      <c r="BE82" s="38"/>
+      <c r="BF82" s="38"/>
+      <c r="BG82" s="38"/>
+      <c r="BH82" s="38"/>
+      <c r="BI82" s="38"/>
+      <c r="BJ82" s="38"/>
+      <c r="BK82" s="38"/>
+      <c r="BL82" s="38"/>
+      <c r="BM82" s="38"/>
+      <c r="BN82" s="38"/>
+      <c r="BO82" s="38"/>
+      <c r="BP82" s="38"/>
+      <c r="BQ82" s="38"/>
+      <c r="BR82" s="38"/>
+      <c r="BS82" s="38"/>
+      <c r="BT82" s="38"/>
+      <c r="BU82" s="38"/>
+      <c r="BV82" s="38"/>
+      <c r="BW82" s="38"/>
+      <c r="BX82" s="38"/>
+      <c r="BY82" s="38"/>
+      <c r="BZ82" s="38"/>
+      <c r="CA82" s="38"/>
+      <c r="CB82" s="38"/>
+      <c r="CC82" s="38"/>
+      <c r="CD82" s="38"/>
+      <c r="CE82" s="38"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="104">
     <mergeCell ref="A1:BC1"/>

--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_1ログイン画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D9F168-C2DD-4369-9275-FCA16D453955}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D37E79-8704-4A41-B3C4-F3B099A62BEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -879,19 +873,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -903,19 +897,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1031,8 +1025,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="167640"/>
-          <a:ext cx="5026770" cy="4000840"/>
+          <a:off x="0" y="171450"/>
+          <a:ext cx="5093445" cy="4086565"/>
           <a:chOff x="563880" y="168000"/>
           <a:chExt cx="5030580" cy="3995760"/>
         </a:xfrm>
@@ -4671,40 +4665,40 @@
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="28"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="27"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="27"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27"/>
+      <c r="AE41" s="27"/>
+      <c r="AF41" s="27"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
@@ -4882,45 +4876,45 @@
       <c r="A49" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28" t="s">
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28" t="s">
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28" t="s">
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="28"/>
-      <c r="AF49" s="28"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
@@ -5086,20 +5080,20 @@
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
-      <c r="U53" s="27" t="s">
+      <c r="U53" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="27"/>
-      <c r="AF53" s="27"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="28"/>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
@@ -5267,6 +5261,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:T54"/>
+    <mergeCell ref="U54:AF54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="U51:AF51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
     <mergeCell ref="L56:T56"/>
     <mergeCell ref="U56:AF56"/>
     <mergeCell ref="B57:G57"/>
@@ -5283,28 +5299,6 @@
     <mergeCell ref="U50:AF50"/>
     <mergeCell ref="B51:G51"/>
     <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:T51"/>
-    <mergeCell ref="U51:AF51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:T54"/>
-    <mergeCell ref="U54:AF54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -5322,122 +5316,122 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="28"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="28"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
@@ -5497,101 +5491,101 @@
       <c r="BC4" s="18"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="29" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="28" t="s">
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28" t="s">
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28"/>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="28"/>
-      <c r="AM5" s="28"/>
-      <c r="AN5" s="28"/>
-      <c r="AO5" s="28"/>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="28"/>
-      <c r="AT5" s="28"/>
-      <c r="AU5" s="28"/>
-      <c r="AV5" s="28"/>
-      <c r="AW5" s="28"/>
-      <c r="AX5" s="28"/>
-      <c r="AY5" s="28"/>
-      <c r="AZ5" s="28"/>
-      <c r="BA5" s="28"/>
-      <c r="BB5" s="28"/>
-      <c r="BC5" s="28"/>
-      <c r="BD5" s="29" t="s">
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
+      <c r="BA5" s="27"/>
+      <c r="BB5" s="27"/>
+      <c r="BC5" s="27"/>
+      <c r="BD5" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="BE5" s="30"/>
-      <c r="BF5" s="30"/>
-      <c r="BG5" s="30"/>
-      <c r="BH5" s="30"/>
-      <c r="BI5" s="30"/>
-      <c r="BJ5" s="30"/>
-      <c r="BK5" s="30"/>
-      <c r="BL5" s="30"/>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
-      <c r="BP5" s="30"/>
-      <c r="BQ5" s="30"/>
-      <c r="BR5" s="30"/>
-      <c r="BS5" s="30"/>
-      <c r="BT5" s="30"/>
-      <c r="BU5" s="30"/>
-      <c r="BV5" s="30"/>
-      <c r="BW5" s="30"/>
-      <c r="BX5" s="30"/>
-      <c r="BY5" s="30"/>
-      <c r="BZ5" s="30"/>
-      <c r="CA5" s="30"/>
-      <c r="CB5" s="30"/>
-      <c r="CC5" s="30"/>
-      <c r="CD5" s="30"/>
-      <c r="CE5" s="31"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
+      <c r="BJ5" s="36"/>
+      <c r="BK5" s="36"/>
+      <c r="BL5" s="36"/>
+      <c r="BM5" s="36"/>
+      <c r="BN5" s="36"/>
+      <c r="BO5" s="36"/>
+      <c r="BP5" s="36"/>
+      <c r="BQ5" s="36"/>
+      <c r="BR5" s="36"/>
+      <c r="BS5" s="36"/>
+      <c r="BT5" s="36"/>
+      <c r="BU5" s="36"/>
+      <c r="BV5" s="36"/>
+      <c r="BW5" s="36"/>
+      <c r="BX5" s="36"/>
+      <c r="BY5" s="36"/>
+      <c r="BZ5" s="36"/>
+      <c r="CA5" s="36"/>
+      <c r="CB5" s="36"/>
+      <c r="CC5" s="36"/>
+      <c r="CD5" s="36"/>
+      <c r="CE5" s="37"/>
     </row>
     <row r="6" spans="1:83" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -5604,61 +5598,61 @@
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="27" t="s">
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27" t="s">
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
+      <c r="AE6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
-      <c r="AI6" s="27"/>
-      <c r="AJ6" s="27"/>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="27"/>
-      <c r="AM6" s="27"/>
-      <c r="AN6" s="27"/>
-      <c r="AO6" s="27"/>
-      <c r="AP6" s="27"/>
-      <c r="AQ6" s="27"/>
-      <c r="AR6" s="27"/>
-      <c r="AS6" s="27"/>
-      <c r="AT6" s="27"/>
-      <c r="AU6" s="27"/>
-      <c r="AV6" s="27"/>
-      <c r="AW6" s="27"/>
-      <c r="AX6" s="27"/>
-      <c r="AY6" s="27"/>
-      <c r="AZ6" s="27"/>
-      <c r="BA6" s="27"/>
-      <c r="BB6" s="27"/>
-      <c r="BC6" s="27"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="28"/>
+      <c r="AL6" s="28"/>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="28"/>
+      <c r="AO6" s="28"/>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="28"/>
+      <c r="AR6" s="28"/>
+      <c r="AS6" s="28"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="28"/>
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28"/>
+      <c r="AX6" s="28"/>
+      <c r="AY6" s="28"/>
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="28"/>
+      <c r="BB6" s="28"/>
+      <c r="BC6" s="28"/>
       <c r="BD6" s="32" t="s">
         <v>65</v>
       </c>
@@ -5700,55 +5694,55 @@
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
       <c r="F7" s="34"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27"/>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="27"/>
-      <c r="AM7" s="27"/>
-      <c r="AN7" s="27"/>
-      <c r="AO7" s="27"/>
-      <c r="AP7" s="27"/>
-      <c r="AQ7" s="27"/>
-      <c r="AR7" s="27"/>
-      <c r="AS7" s="27"/>
-      <c r="AT7" s="27"/>
-      <c r="AU7" s="27"/>
-      <c r="AV7" s="27"/>
-      <c r="AW7" s="27"/>
-      <c r="AX7" s="27"/>
-      <c r="AY7" s="27"/>
-      <c r="AZ7" s="27"/>
-      <c r="BA7" s="27"/>
-      <c r="BB7" s="27"/>
-      <c r="BC7" s="27"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="28"/>
+      <c r="AL7" s="28"/>
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="28"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
+      <c r="AY7" s="28"/>
+      <c r="AZ7" s="28"/>
+      <c r="BA7" s="28"/>
+      <c r="BB7" s="28"/>
+      <c r="BC7" s="28"/>
       <c r="BD7" s="32"/>
       <c r="BE7" s="33"/>
       <c r="BF7" s="33"/>
@@ -5788,55 +5782,55 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27"/>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="27"/>
-      <c r="AM8" s="27"/>
-      <c r="AN8" s="27"/>
-      <c r="AO8" s="27"/>
-      <c r="AP8" s="27"/>
-      <c r="AQ8" s="27"/>
-      <c r="AR8" s="27"/>
-      <c r="AS8" s="27"/>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="27"/>
-      <c r="AY8" s="27"/>
-      <c r="AZ8" s="27"/>
-      <c r="BA8" s="27"/>
-      <c r="BB8" s="27"/>
-      <c r="BC8" s="27"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="28"/>
+      <c r="AR8" s="28"/>
+      <c r="AS8" s="28"/>
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="28"/>
       <c r="BD8" s="32"/>
       <c r="BE8" s="33"/>
       <c r="BF8" s="33"/>
@@ -5981,105 +5975,105 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="28" t="s">
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28" t="s">
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28" t="s">
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="28"/>
-      <c r="AL11" s="28"/>
-      <c r="AM11" s="28"/>
-      <c r="AN11" s="28" t="s">
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="28"/>
-      <c r="AP11" s="28"/>
-      <c r="AQ11" s="28"/>
-      <c r="AR11" s="28"/>
-      <c r="AS11" s="28"/>
-      <c r="AT11" s="28"/>
-      <c r="AU11" s="28"/>
-      <c r="AV11" s="28"/>
-      <c r="AW11" s="28"/>
-      <c r="AX11" s="28"/>
-      <c r="AY11" s="28"/>
-      <c r="AZ11" s="28"/>
-      <c r="BA11" s="28"/>
-      <c r="BB11" s="28"/>
-      <c r="BC11" s="28"/>
-      <c r="BD11" s="29" t="s">
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="27"/>
+      <c r="AW11" s="27"/>
+      <c r="AX11" s="27"/>
+      <c r="AY11" s="27"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="27"/>
+      <c r="BB11" s="27"/>
+      <c r="BC11" s="27"/>
+      <c r="BD11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="BE11" s="30"/>
-      <c r="BF11" s="30"/>
-      <c r="BG11" s="30"/>
-      <c r="BH11" s="30"/>
-      <c r="BI11" s="30"/>
-      <c r="BJ11" s="30"/>
-      <c r="BK11" s="30"/>
-      <c r="BL11" s="30"/>
-      <c r="BM11" s="30"/>
-      <c r="BN11" s="30"/>
-      <c r="BO11" s="30"/>
-      <c r="BP11" s="30"/>
-      <c r="BQ11" s="30"/>
-      <c r="BR11" s="30"/>
-      <c r="BS11" s="30"/>
-      <c r="BT11" s="30"/>
-      <c r="BU11" s="30"/>
-      <c r="BV11" s="30"/>
-      <c r="BW11" s="30"/>
-      <c r="BX11" s="30"/>
-      <c r="BY11" s="30"/>
-      <c r="BZ11" s="30"/>
-      <c r="CA11" s="30"/>
-      <c r="CB11" s="30"/>
-      <c r="CC11" s="30"/>
-      <c r="CD11" s="30"/>
-      <c r="CE11" s="31"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="36"/>
+      <c r="BI11" s="36"/>
+      <c r="BJ11" s="36"/>
+      <c r="BK11" s="36"/>
+      <c r="BL11" s="36"/>
+      <c r="BM11" s="36"/>
+      <c r="BN11" s="36"/>
+      <c r="BO11" s="36"/>
+      <c r="BP11" s="36"/>
+      <c r="BQ11" s="36"/>
+      <c r="BR11" s="36"/>
+      <c r="BS11" s="36"/>
+      <c r="BT11" s="36"/>
+      <c r="BU11" s="36"/>
+      <c r="BV11" s="36"/>
+      <c r="BW11" s="36"/>
+      <c r="BX11" s="36"/>
+      <c r="BY11" s="36"/>
+      <c r="BZ11" s="36"/>
+      <c r="CA11" s="36"/>
+      <c r="CB11" s="36"/>
+      <c r="CC11" s="36"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="37"/>
     </row>
     <row r="12" spans="1:83" ht="56.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26">
@@ -6092,65 +6086,65 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="35" t="s">
+      <c r="G12" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="27" t="s">
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27" t="s">
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27" t="s">
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27" t="s">
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="28"/>
+      <c r="AM12" s="28"/>
+      <c r="AN12" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="27"/>
-      <c r="AS12" s="27"/>
-      <c r="AT12" s="27"/>
-      <c r="AU12" s="27"/>
-      <c r="AV12" s="27"/>
-      <c r="AW12" s="27"/>
-      <c r="AX12" s="27"/>
-      <c r="AY12" s="27"/>
-      <c r="AZ12" s="27"/>
-      <c r="BA12" s="27"/>
-      <c r="BB12" s="27"/>
-      <c r="BC12" s="27"/>
+      <c r="AO12" s="28"/>
+      <c r="AP12" s="28"/>
+      <c r="AQ12" s="28"/>
+      <c r="AR12" s="28"/>
+      <c r="AS12" s="28"/>
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
+      <c r="AX12" s="28"/>
+      <c r="AY12" s="28"/>
+      <c r="AZ12" s="28"/>
+      <c r="BA12" s="28"/>
+      <c r="BB12" s="28"/>
+      <c r="BC12" s="28"/>
       <c r="BD12" s="32" t="s">
         <v>66</v>
       </c>
@@ -6194,65 +6188,65 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="34"/>
-      <c r="G13" s="35" t="s">
+      <c r="G13" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="27" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27" t="s">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27" t="s">
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27" t="s">
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="28"/>
+      <c r="AL13" s="28"/>
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27"/>
+      <c r="AO13" s="28"/>
+      <c r="AP13" s="28"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="28"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
       <c r="BD13" s="32" t="s">
         <v>49</v>
       </c>
@@ -6296,65 +6290,65 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="34"/>
-      <c r="G14" s="35" t="s">
+      <c r="G14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="27" t="s">
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27" t="s">
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27" t="s">
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27" t="s">
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="27"/>
-      <c r="AR14" s="27"/>
-      <c r="AS14" s="27"/>
-      <c r="AT14" s="27"/>
-      <c r="AU14" s="27"/>
-      <c r="AV14" s="27"/>
-      <c r="AW14" s="27"/>
-      <c r="AX14" s="27"/>
-      <c r="AY14" s="27"/>
-      <c r="AZ14" s="27"/>
-      <c r="BA14" s="27"/>
-      <c r="BB14" s="27"/>
-      <c r="BC14" s="27"/>
+      <c r="AO14" s="28"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
       <c r="BD14" s="32" t="s">
         <v>49</v>
       </c>
@@ -6398,65 +6392,65 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="27" t="s">
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27" t="s">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27" t="s">
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27" t="s">
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="28"/>
+      <c r="AL15" s="28"/>
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27"/>
-      <c r="AS15" s="27"/>
-      <c r="AT15" s="27"/>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="27"/>
-      <c r="AX15" s="27"/>
-      <c r="AY15" s="27"/>
-      <c r="AZ15" s="27"/>
-      <c r="BA15" s="27"/>
-      <c r="BB15" s="27"/>
-      <c r="BC15" s="27"/>
+      <c r="AO15" s="28"/>
+      <c r="AP15" s="28"/>
+      <c r="AQ15" s="28"/>
+      <c r="AR15" s="28"/>
+      <c r="AS15" s="28"/>
+      <c r="AT15" s="28"/>
+      <c r="AU15" s="28"/>
+      <c r="AV15" s="28"/>
+      <c r="AW15" s="28"/>
+      <c r="AX15" s="28"/>
+      <c r="AY15" s="28"/>
+      <c r="AZ15" s="28"/>
+      <c r="BA15" s="28"/>
+      <c r="BB15" s="28"/>
+      <c r="BC15" s="28"/>
       <c r="BD15" s="32" t="s">
         <v>49</v>
       </c>
@@ -6500,65 +6494,65 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="27" t="s">
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27" t="s">
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27" t="s">
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27" t="s">
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="27"/>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="27"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="27"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="27"/>
+      <c r="AO16" s="28"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="28"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="28"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="28"/>
       <c r="BD16" s="32" t="s">
         <v>67</v>
       </c>
@@ -6600,55 +6594,55 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="27"/>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="27"/>
-      <c r="AZ17" s="27"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="27"/>
-      <c r="BC17" s="27"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="28"/>
+      <c r="AT17" s="28"/>
+      <c r="AU17" s="28"/>
+      <c r="AV17" s="28"/>
+      <c r="AW17" s="28"/>
+      <c r="AX17" s="28"/>
+      <c r="AY17" s="28"/>
+      <c r="AZ17" s="28"/>
+      <c r="BA17" s="28"/>
+      <c r="BB17" s="28"/>
+      <c r="BC17" s="28"/>
       <c r="BD17" s="32"/>
       <c r="BE17" s="33"/>
       <c r="BF17" s="33"/>
@@ -6679,103 +6673,103 @@
       <c r="CE17" s="34"/>
     </row>
     <row r="20" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="29" t="s">
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="28" t="s">
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28" t="s">
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28" t="s">
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AL20" s="28"/>
-      <c r="AM20" s="28"/>
-      <c r="AN20" s="28"/>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="28"/>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="28"/>
-      <c r="AT20" s="28"/>
-      <c r="AU20" s="28"/>
-      <c r="AV20" s="28"/>
-      <c r="AW20" s="28"/>
-      <c r="AX20" s="28"/>
-      <c r="AY20" s="28"/>
-      <c r="AZ20" s="28"/>
-      <c r="BA20" s="28"/>
-      <c r="BB20" s="28"/>
-      <c r="BC20" s="28"/>
-      <c r="BD20" s="29" t="s">
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="27"/>
+      <c r="AW20" s="27"/>
+      <c r="AX20" s="27"/>
+      <c r="AY20" s="27"/>
+      <c r="AZ20" s="27"/>
+      <c r="BA20" s="27"/>
+      <c r="BB20" s="27"/>
+      <c r="BC20" s="27"/>
+      <c r="BD20" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="BE20" s="30"/>
-      <c r="BF20" s="30"/>
-      <c r="BG20" s="30"/>
-      <c r="BH20" s="30"/>
-      <c r="BI20" s="30"/>
-      <c r="BJ20" s="30"/>
-      <c r="BK20" s="30"/>
-      <c r="BL20" s="30"/>
-      <c r="BM20" s="30"/>
-      <c r="BN20" s="30"/>
-      <c r="BO20" s="30"/>
-      <c r="BP20" s="30"/>
-      <c r="BQ20" s="30"/>
-      <c r="BR20" s="30"/>
-      <c r="BS20" s="30"/>
-      <c r="BT20" s="30"/>
-      <c r="BU20" s="30"/>
-      <c r="BV20" s="30"/>
-      <c r="BW20" s="30"/>
-      <c r="BX20" s="30"/>
-      <c r="BY20" s="30"/>
-      <c r="BZ20" s="30"/>
-      <c r="CA20" s="30"/>
-      <c r="CB20" s="30"/>
-      <c r="CC20" s="30"/>
-      <c r="CD20" s="30"/>
-      <c r="CE20" s="31"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
+      <c r="BJ20" s="36"/>
+      <c r="BK20" s="36"/>
+      <c r="BL20" s="36"/>
+      <c r="BM20" s="36"/>
+      <c r="BN20" s="36"/>
+      <c r="BO20" s="36"/>
+      <c r="BP20" s="36"/>
+      <c r="BQ20" s="36"/>
+      <c r="BR20" s="36"/>
+      <c r="BS20" s="36"/>
+      <c r="BT20" s="36"/>
+      <c r="BU20" s="36"/>
+      <c r="BV20" s="36"/>
+      <c r="BW20" s="36"/>
+      <c r="BX20" s="36"/>
+      <c r="BY20" s="36"/>
+      <c r="BZ20" s="36"/>
+      <c r="CA20" s="36"/>
+      <c r="CB20" s="36"/>
+      <c r="CC20" s="36"/>
+      <c r="CD20" s="36"/>
+      <c r="CE20" s="37"/>
     </row>
     <row r="21" spans="1:83" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26">
@@ -6788,63 +6782,63 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="35" t="s">
+      <c r="G21" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="27" t="s">
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27" t="s">
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="27" t="s">
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="27"/>
-      <c r="AQ21" s="27"/>
-      <c r="AR21" s="27"/>
-      <c r="AS21" s="27"/>
-      <c r="AT21" s="27"/>
-      <c r="AU21" s="27"/>
-      <c r="AV21" s="27"/>
-      <c r="AW21" s="27"/>
-      <c r="AX21" s="27"/>
-      <c r="AY21" s="27"/>
-      <c r="AZ21" s="27"/>
-      <c r="BA21" s="27"/>
-      <c r="BB21" s="27"/>
-      <c r="BC21" s="27"/>
+      <c r="AL21" s="28"/>
+      <c r="AM21" s="28"/>
+      <c r="AN21" s="28"/>
+      <c r="AO21" s="28"/>
+      <c r="AP21" s="28"/>
+      <c r="AQ21" s="28"/>
+      <c r="AR21" s="28"/>
+      <c r="AS21" s="28"/>
+      <c r="AT21" s="28"/>
+      <c r="AU21" s="28"/>
+      <c r="AV21" s="28"/>
+      <c r="AW21" s="28"/>
+      <c r="AX21" s="28"/>
+      <c r="AY21" s="28"/>
+      <c r="AZ21" s="28"/>
+      <c r="BA21" s="28"/>
+      <c r="BB21" s="28"/>
+      <c r="BC21" s="28"/>
       <c r="BD21" s="32" t="s">
         <v>68</v>
       </c>
@@ -6886,55 +6880,55 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="27"/>
-      <c r="AP22" s="27"/>
-      <c r="AQ22" s="27"/>
-      <c r="AR22" s="27"/>
-      <c r="AS22" s="27"/>
-      <c r="AT22" s="27"/>
-      <c r="AU22" s="27"/>
-      <c r="AV22" s="27"/>
-      <c r="AW22" s="27"/>
-      <c r="AX22" s="27"/>
-      <c r="AY22" s="27"/>
-      <c r="AZ22" s="27"/>
-      <c r="BA22" s="27"/>
-      <c r="BB22" s="27"/>
-      <c r="BC22" s="27"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="28"/>
+      <c r="AO22" s="28"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28"/>
+      <c r="AR22" s="28"/>
+      <c r="AS22" s="28"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="28"/>
+      <c r="AV22" s="28"/>
+      <c r="AW22" s="28"/>
+      <c r="AX22" s="28"/>
+      <c r="AY22" s="28"/>
+      <c r="AZ22" s="28"/>
+      <c r="BA22" s="28"/>
+      <c r="BB22" s="28"/>
+      <c r="BC22" s="28"/>
       <c r="BD22" s="32"/>
       <c r="BE22" s="33"/>
       <c r="BF22" s="33"/>
@@ -6974,55 +6968,55 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="27"/>
-      <c r="AS23" s="27"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
-      <c r="AW23" s="27"/>
-      <c r="AX23" s="27"/>
-      <c r="AY23" s="27"/>
-      <c r="AZ23" s="27"/>
-      <c r="BA23" s="27"/>
-      <c r="BB23" s="27"/>
-      <c r="BC23" s="27"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="28"/>
+      <c r="AT23" s="28"/>
+      <c r="AU23" s="28"/>
+      <c r="AV23" s="28"/>
+      <c r="AW23" s="28"/>
+      <c r="AX23" s="28"/>
+      <c r="AY23" s="28"/>
+      <c r="AZ23" s="28"/>
+      <c r="BA23" s="28"/>
+      <c r="BB23" s="28"/>
+      <c r="BC23" s="28"/>
       <c r="BD23" s="32"/>
       <c r="BE23" s="33"/>
       <c r="BF23" s="33"/>
@@ -7062,55 +7056,55 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="27"/>
-      <c r="AQ24" s="27"/>
-      <c r="AR24" s="27"/>
-      <c r="AS24" s="27"/>
-      <c r="AT24" s="27"/>
-      <c r="AU24" s="27"/>
-      <c r="AV24" s="27"/>
-      <c r="AW24" s="27"/>
-      <c r="AX24" s="27"/>
-      <c r="AY24" s="27"/>
-      <c r="AZ24" s="27"/>
-      <c r="BA24" s="27"/>
-      <c r="BB24" s="27"/>
-      <c r="BC24" s="27"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
+      <c r="AZ24" s="28"/>
+      <c r="BA24" s="28"/>
+      <c r="BB24" s="28"/>
+      <c r="BC24" s="28"/>
       <c r="BD24" s="32"/>
       <c r="BE24" s="33"/>
       <c r="BF24" s="33"/>
@@ -7150,55 +7144,55 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-      <c r="AQ25" s="27"/>
-      <c r="AR25" s="27"/>
-      <c r="AS25" s="27"/>
-      <c r="AT25" s="27"/>
-      <c r="AU25" s="27"/>
-      <c r="AV25" s="27"/>
-      <c r="AW25" s="27"/>
-      <c r="AX25" s="27"/>
-      <c r="AY25" s="27"/>
-      <c r="AZ25" s="27"/>
-      <c r="BA25" s="27"/>
-      <c r="BB25" s="27"/>
-      <c r="BC25" s="27"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
+      <c r="AZ25" s="28"/>
+      <c r="BA25" s="28"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="28"/>
       <c r="BD25" s="32"/>
       <c r="BE25" s="33"/>
       <c r="BF25" s="33"/>
@@ -7230,29 +7224,83 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="M25:X25"/>
-    <mergeCell ref="Y25:AJ25"/>
-    <mergeCell ref="AK25:BC25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="M24:X24"/>
-    <mergeCell ref="Y24:AJ24"/>
-    <mergeCell ref="AK24:BC24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="M23:X23"/>
-    <mergeCell ref="Y23:AJ23"/>
-    <mergeCell ref="AK23:BC23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="M22:X22"/>
-    <mergeCell ref="Y22:AJ22"/>
-    <mergeCell ref="AK22:BC22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="BD25:CE25"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="G16:L16"/>
+    <mergeCell ref="BD5:CE5"/>
+    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="BD7:CE7"/>
+    <mergeCell ref="BD8:CE8"/>
+    <mergeCell ref="BD11:CE11"/>
+    <mergeCell ref="BD12:CE12"/>
+    <mergeCell ref="BD22:CE22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="BD23:CE23"/>
+    <mergeCell ref="BD24:CE24"/>
+    <mergeCell ref="BD17:CE17"/>
+    <mergeCell ref="BD20:CE20"/>
+    <mergeCell ref="BD21:CE21"/>
+    <mergeCell ref="BD14:CE14"/>
+    <mergeCell ref="BD15:CE15"/>
+    <mergeCell ref="BD16:CE16"/>
+    <mergeCell ref="BD13:CE13"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AN17:BC17"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="M16:U16"/>
+    <mergeCell ref="V16:AD16"/>
+    <mergeCell ref="AE16:AM16"/>
+    <mergeCell ref="AN16:BC16"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="M21:X21"/>
     <mergeCell ref="Y21:AJ21"/>
@@ -7277,83 +7325,29 @@
     <mergeCell ref="AE17:AM17"/>
     <mergeCell ref="M17:U17"/>
     <mergeCell ref="M15:U15"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AN17:BC17"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="M16:U16"/>
-    <mergeCell ref="V16:AD16"/>
-    <mergeCell ref="AE16:AM16"/>
-    <mergeCell ref="AN16:BC16"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="BD7:CE7"/>
-    <mergeCell ref="BD8:CE8"/>
-    <mergeCell ref="BD11:CE11"/>
-    <mergeCell ref="BD12:CE12"/>
-    <mergeCell ref="BD22:CE22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="BD23:CE23"/>
-    <mergeCell ref="BD24:CE24"/>
-    <mergeCell ref="BD17:CE17"/>
-    <mergeCell ref="BD20:CE20"/>
-    <mergeCell ref="BD21:CE21"/>
-    <mergeCell ref="BD14:CE14"/>
-    <mergeCell ref="BD15:CE15"/>
-    <mergeCell ref="BD16:CE16"/>
-    <mergeCell ref="BD13:CE13"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="BD25:CE25"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="G16:L16"/>
-    <mergeCell ref="BD5:CE5"/>
-    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="M23:X23"/>
+    <mergeCell ref="Y23:AJ23"/>
+    <mergeCell ref="AK23:BC23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="M22:X22"/>
+    <mergeCell ref="Y22:AJ22"/>
+    <mergeCell ref="AK22:BC22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="M25:X25"/>
+    <mergeCell ref="Y25:AJ25"/>
+    <mergeCell ref="AK25:BC25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="M24:X24"/>
+    <mergeCell ref="Y24:AJ24"/>
+    <mergeCell ref="AK24:BC24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C24:F24"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7370,47 +7364,47 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28" t="s">
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
     </row>
     <row r="3" spans="1:35" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26">
@@ -7429,31 +7423,31 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
-      <c r="M3" s="38" t="s">
+      <c r="M3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39"/>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="26">
@@ -7471,29 +7465,29 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="26">
@@ -7511,29 +7505,29 @@
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="26">
@@ -7551,29 +7545,29 @@
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="26">
@@ -7591,32 +7585,38 @@
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="39"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -7629,12 +7629,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7667,6 +7661,6 @@
   <sheetData/>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>